--- a/earworm_library/earworms.xlsx
+++ b/earworm_library/earworms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zspatter/Documents/GitHub/earworms/earworm_library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE77401A-238A-3C41-B7DA-F57F6FEC9A89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F1BB4E-0CF2-734C-91C1-A7C111E3DA60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1488">
   <si>
     <t>it's raining men</t>
   </si>
@@ -4154,411 +4155,72 @@
     <t>C+C Music Factory - Gonna Make You Sweat (Everybody Dance Now) ft. Freedom Williams</t>
   </si>
   <si>
-    <t>Vanilla Ice - Ice Ice Baby (Official Video)</t>
-  </si>
-  <si>
-    <t>The Offspring - The Kids Aren't Alright (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Crazy Town - Butterfly (Official Video)</t>
-  </si>
-  <si>
-    <t>Destiny's Child - Say My Name (Official Video)</t>
-  </si>
-  <si>
-    <t>Dido - Thank You (Official Music Video)</t>
-  </si>
-  <si>
     <t>Radiohead - Creep</t>
   </si>
   <si>
-    <t>Goo Goo Dolls - "Iris" [Official Music Video]</t>
-  </si>
-  <si>
-    <t>Backstreet Boys - As Long As You Love Me (Clive's Cut) (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Ricky Martin - Livin' La Vida Loca (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Savage Garden - Truly Madly Deeply (Official Video)</t>
-  </si>
-  <si>
-    <t>Nirvana - The Man Who Sold The World (MTV Unplugged)</t>
-  </si>
-  <si>
-    <t>Aerosmith - I Don't Want to Miss a Thing (Official Music Video)</t>
-  </si>
-  <si>
-    <t>The Cranberries - Zombie (Official Music Video)</t>
-  </si>
-  <si>
-    <t>AC/DC - Thunderstruck (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Backstreet Boys - I Want It That Way (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Macy Gray - I Try (Video Version)</t>
-  </si>
-  <si>
-    <t>Fergie - Glamorous ft. Ludacris (Official Music Video)</t>
-  </si>
-  <si>
     <t>Tinie Tempah - Written In The Stars ft. Eric Turner</t>
   </si>
   <si>
-    <t>Semisonic - Closing Time (Official Video)</t>
-  </si>
-  <si>
-    <t>Melissa Etheridge - I'm The Only One (Music Video)</t>
-  </si>
-  <si>
-    <t>TLC - Waterfalls (Official Video)</t>
-  </si>
-  <si>
-    <t>Beck - Loser (Official Video)</t>
-  </si>
-  <si>
     <t>Fly - Sugar Ray</t>
   </si>
   <si>
     <t>Matt Nathanson - Come On Get Higher</t>
   </si>
   <si>
-    <t>Hinder - Lips Of An Angel (Official Video)</t>
-  </si>
-  <si>
     <t>Beautiful Soul- Jesse McCartney</t>
   </si>
   <si>
-    <t>Rob Thomas - Lonely No More (Official Video)</t>
-  </si>
-  <si>
-    <t>Uncle Kracker - Drift Away (Official Video)</t>
-  </si>
-  <si>
-    <t>Lou Bega - Mambo No. 5 (A Little Bit of...) (Official Video)</t>
-  </si>
-  <si>
-    <t>Fall Out Boy - Thnks fr th Mmrs (Official Music Video)</t>
-  </si>
-  <si>
-    <t>The All-American Rejects - Dirty Little Secret (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Daniel Powter - Bad Day (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Santana - Smooth ft. Rob Thomas (Official Video)</t>
-  </si>
-  <si>
-    <t>Shakira - Hips Don't Lie (Official Music Video) ft. Wyclef Jean</t>
-  </si>
-  <si>
-    <t>Weezer - Beverly Hills (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Cascada - Everytime We Touch (Official video)</t>
-  </si>
-  <si>
-    <t>James Blunt - You're Beautiful (Video)</t>
-  </si>
-  <si>
-    <t>Howie Day- Collide- With Lyrics</t>
-  </si>
-  <si>
-    <t>Kelis - Bossy ft. Too $hort (Official Video)</t>
-  </si>
-  <si>
-    <t>The Fray - You Found Me (Official VIdeo)</t>
-  </si>
-  <si>
-    <t>Carrie Underwood - Before He Cheats (Official Video)</t>
-  </si>
-  <si>
-    <t>Good Charlotte - The Anthem (Lyrics)</t>
-  </si>
-  <si>
-    <t>The Fray - Over My Head (Cable Car) (Video)</t>
-  </si>
-  <si>
-    <t>Fall Out Boy - Sugar, We're Goin Down (Concept Version)</t>
-  </si>
-  <si>
-    <t>P!nk - Get This Party Started Lyrics</t>
-  </si>
-  <si>
-    <t>Bowling For Soup - 1985 (Official Video)</t>
-  </si>
-  <si>
-    <t>John Mayer - Daughters (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Modest Mouse - Float On (Official Video)</t>
-  </si>
-  <si>
-    <t>MGMT - Kids (Video with Fire Intro)</t>
-  </si>
-  <si>
-    <t>John Mayer - Waiting On the World to Change (Official Music Video)</t>
-  </si>
-  <si>
     <t>Gavin DeGraw - I Don't Want To Be</t>
   </si>
   <si>
-    <t>Christina Aguilera - Ain't No Other Man (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Shakira - Whenever, Wherever (Official Music Video)</t>
-  </si>
-  <si>
-    <t>The Fray - How to Save a Life (Official Video)</t>
-  </si>
-  <si>
-    <t>OutKast - Ms. Jackson (Official Video)</t>
-  </si>
-  <si>
-    <t>Leona Lewis - Bleeding Love (Official Video)</t>
-  </si>
-  <si>
     <t>P!nk - Raise Your Glass</t>
   </si>
   <si>
-    <t>John Mayer - Your Body Is A Wonderland (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Usher ft. Lil Jon, Ludacris - Yeah! (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Lifehouse - You And Me (Official Video)</t>
-  </si>
-  <si>
-    <t>3 Doors Down - Kryptonite (Official Video)</t>
-  </si>
-  <si>
-    <t>Kings Of Leon - Use Somebody (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Simple Plan - Welcome To my Life (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Numb (Official Video) - Linkin Park</t>
-  </si>
-  <si>
-    <t>Sum 41 - Fatlip (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Limp Bizkit - My Way (Official Video)</t>
-  </si>
-  <si>
     <t>Jessie J - Price Tag ft. B.o.B</t>
   </si>
   <si>
-    <t>The Pussycat Dolls - When I Grow Up (Official Video)</t>
-  </si>
-  <si>
-    <t>Shaggy - Angel ft. Rayvon (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Green Day: "Boulevard Of Broken Dreams" - [Official Video]</t>
-  </si>
-  <si>
-    <t>Green Day - Wake Me Up When September Ends [Official Music Video]</t>
-  </si>
-  <si>
     <t>Bon Jovi - It's My Life</t>
   </si>
   <si>
-    <t>Rihanna - Pon de Replay (Internet Version)</t>
-  </si>
-  <si>
-    <t>Lady Gaga - LoveGame (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Jimmy Eat World - The Middle (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Gwen Stefani - What You Waiting For? (Extended Explicit Version)</t>
-  </si>
-  <si>
     <t>Rihanna - Take A Bow</t>
   </si>
   <si>
     <t>Jesse McCartney - Beautiful Soul</t>
   </si>
   <si>
-    <t>Céline Dion - That's The Way It Is (Official Music Video)</t>
-  </si>
-  <si>
     <t>Snow Patrol - Chasing Cars</t>
   </si>
   <si>
-    <t>OneRepublic - Apologize (Live)</t>
-  </si>
-  <si>
-    <t>Nelly - Hot In Herre (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Britney Spears - Oops!...I Did It Again (Official Video)</t>
-  </si>
-  <si>
-    <t>Fergie - Big Girls Don't Cry (Personal) (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Fergie - Fergalicious (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Nelly - Dilemma ft. Kelly Rowland (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Avril Lavigne - My Happy Ending (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Britney Spears - Womanizer (Director's Cut) [Official Music Video]</t>
-  </si>
-  <si>
-    <t>Train - Drops of Jupiter (Official Music Video)</t>
-  </si>
-  <si>
     <t>Rihanna - SOS</t>
   </si>
   <si>
-    <t>Kings Of Leon - Sex on Fire (Official Music Video)</t>
-  </si>
-  <si>
     <t>Taylor Swift - You Belong With Me</t>
   </si>
   <si>
-    <t>Justin Timberlake - SexyBack ft. Timbaland (Director's Cut)</t>
-  </si>
-  <si>
-    <t>The Black Eyed Peas - Boom Boom Pow (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Christina Aguilera - Beautiful (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Evanescence - Call Me When You're Sober (Official Music Video)</t>
-  </si>
-  <si>
     <t>*NSYNC - Bye Bye Bye</t>
   </si>
   <si>
-    <t>Britney Spears - Toxic (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Nelly Furtado - Say It Right (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Evanescence - Bring Me To Life (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Evanescence - Going Under (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson - Breakaway (Official Video)</t>
-  </si>
-  <si>
-    <t>P!nk - So What (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Gwen Stefani - The Sweet Escape (Official Music Video) ft. Akon</t>
-  </si>
-  <si>
-    <t>Natasha Bedingfield - Unwritten (US Version) (Official Video)</t>
-  </si>
-  <si>
-    <t>Sara Bareilles - Love Song (Official Music Video)</t>
-  </si>
-  <si>
-    <t>The Pussycat Dolls - Beep ft. will.i.am (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Christina Aguilera, Lil' Kim, Mya, Pink - Lady Marmalade (Official Music Video)</t>
-  </si>
-  <si>
     <t>Nickelback - How You Remind Me</t>
   </si>
   <si>
     <t>Enrique Iglesias - Hero</t>
   </si>
   <si>
-    <t>The Pussycat Dolls - Buttons ft. Snoop Dogg (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Avril Lavigne - Complicated (Official Music Video)</t>
-  </si>
-  <si>
     <t>OK Go - Here It Goes Again</t>
   </si>
   <si>
-    <t>Justin Timberlake - Rock Your Body (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Katy Perry - I Kissed A Girl (Official)</t>
-  </si>
-  <si>
-    <t>Hoobastank - The Reason (Official Music Video)</t>
-  </si>
-  <si>
-    <t>The Pussycat Dolls - Don't Cha ft. Busta Rhymes (Official Video)</t>
-  </si>
-  <si>
-    <t>The Black Eyed Peas - Where Is The Love? (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Shaggy - It Wasn't Me (Video)</t>
-  </si>
-  <si>
     <t>The White Stripes - 'Seven Nation Army'</t>
   </si>
   <si>
-    <t>Bloodhound Gang - The Bad Touch (Official Video)</t>
-  </si>
-  <si>
-    <t>Daft Punk - One More Time (Official Video)</t>
-  </si>
-  <si>
-    <t>Justin Timberlake - Cry Me A River (Official Music Video)</t>
-  </si>
-  <si>
     <t>Hot Chelle Rae - Tonight Tonight</t>
   </si>
   <si>
-    <t>Foster The People - Pumped up Kicks (Official Music Video)</t>
-  </si>
-  <si>
     <t>Rihanna - We Found Love ft. Calvin Harris</t>
   </si>
   <si>
-    <t>Kelly Clarkson - Stronger (What Doesn't Kill You) [Official Video]</t>
-  </si>
-  <si>
-    <t>Train - Drive By (Official Music Video)</t>
-  </si>
-  <si>
     <t>Neon Trees - Everybody Talks</t>
   </si>
   <si>
-    <t>The Lumineers - Ho Hey (Official Video)</t>
-  </si>
-  <si>
-    <t>will.i.am - Scream &amp; Shout ft. Britney Spears (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Capital Cities - Safe And Sound (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Avicii - Wake Me Up (Official Video)</t>
-  </si>
-  <si>
-    <t>Passenger | Let Her Go (Official Video)</t>
-  </si>
-  <si>
-    <t>Bastille - Pompeii (Official Music Video)</t>
-  </si>
-  <si>
     <t>Sam Smith - Stay With Me</t>
   </si>
   <si>
@@ -4571,69 +4233,21 @@
     <t>Sam Smith - Lay Me Down</t>
   </si>
   <si>
-    <t>WALK THE MOON - Shut Up and Dance (Official Video)</t>
-  </si>
-  <si>
-    <t>Lorde - Royals (US Version)</t>
-  </si>
-  <si>
-    <t>Justin Bieber - Baby ft. Ludacris (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Justin Timberlake - CAN'T STOP THE FEELING! ("Trolls" Official Video Teaser)</t>
-  </si>
-  <si>
     <t>Imagine Dragons - Believer</t>
   </si>
   <si>
     <t>Imagine Dragons - Thunder</t>
   </si>
   <si>
-    <t>P!nk - Try (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Meghan Trainor - Me Too (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Train - Hey, Soul Sister (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Katy Perry - Hot N Cold (Official)</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson - Because Of You (Official Video)</t>
-  </si>
-  <si>
-    <t>gnash - i hate u, i love u ft. olivia o'brien (music video)</t>
-  </si>
-  <si>
-    <t>Jason Mraz - I'm Yours (Official Video)</t>
-  </si>
-  <si>
-    <t>Meghan Trainor - All About That Bass (Official Music Video)</t>
-  </si>
-  <si>
     <t>John Newman - Love Me Again</t>
   </si>
   <si>
     <t>Adele - Hello</t>
   </si>
   <si>
-    <t>Bruno Mars - Just The Way You Are [Official Video]</t>
-  </si>
-  <si>
     <t>Adele - Someone Like You</t>
   </si>
   <si>
-    <t>Sam Smith - Too Good At Goodbyes (Official Video)</t>
-  </si>
-  <si>
-    <t>Sia - Cheap Thrills ft. Sean Paul (Lyric Video)</t>
-  </si>
-  <si>
-    <t>Panic! At The Disco - High Hopes (Official Video)</t>
-  </si>
-  <si>
     <t>Fifth Harmony - Worth It ft. Kid Ink</t>
   </si>
   <si>
@@ -4643,24 +4257,12 @@
     <t>Halsey - Without Me</t>
   </si>
   <si>
-    <t>P!nk - Just Give Me A Reason ft. Nate Ruess (Official Music Video)</t>
-  </si>
-  <si>
     <t>Ariana Grande - 7 rings</t>
   </si>
   <si>
-    <t>Sia - Chandelier (Official Music Video)</t>
-  </si>
-  <si>
     <t>OneRepublic - Counting Stars</t>
   </si>
   <si>
-    <t>Bruno Mars - The Lazy Song (Official Video)</t>
-  </si>
-  <si>
-    <t>Ed Sheeran &amp; Justin Bieber - I Don't Care [Official Video]</t>
-  </si>
-  <si>
     <t>Maroon 5 - Payphone (Explicit) ft. Wiz Khalifa</t>
   </si>
   <si>
@@ -4673,36 +4275,12 @@
     <t>Maroon 5 - Sugar</t>
   </si>
   <si>
-    <t>Ed Sheeran - Thinking Out Loud [Official Video]</t>
-  </si>
-  <si>
-    <t>John Legend - All of Me (Edited Video)</t>
-  </si>
-  <si>
-    <t>Fun.: Some Nights [OFFICIAL VIDEO]</t>
-  </si>
-  <si>
-    <t>Fun.: We Are Young ft. Janelle Monáe [OFFICIAL VIDEO]</t>
-  </si>
-  <si>
-    <t>Foster The People - Pumped up Kicks (Music Video)</t>
-  </si>
-  <si>
-    <t>Gotye - Somebody That I Used To Know (feat. Kimbra) - official music video</t>
-  </si>
-  <si>
-    <t>The All-American Rejects - Gives You Hell (Full Narrative Version)</t>
-  </si>
-  <si>
     <t>Owl City - Fireflies</t>
   </si>
   <si>
     <t>NF - WHY</t>
   </si>
   <si>
-    <t>Kendrick Lamar - i (Official Video)</t>
-  </si>
-  <si>
     <t>Kendrick Lamar - ELEMENT.</t>
   </si>
   <si>
@@ -4733,39 +4311,15 @@
     <t>NF - NO NAME</t>
   </si>
   <si>
-    <t>NF - Lie (Audio)</t>
-  </si>
-  <si>
-    <t>NF - Let You Down (Audio)</t>
-  </si>
-  <si>
-    <t>Eminem - Headlights ft. Nate Ruess (Official Music Video)</t>
-  </si>
-  <si>
     <t>Eminem - River (Audio) ft. Ed Sheeran</t>
   </si>
   <si>
-    <t>Eminem - Space Bound (Official Video)</t>
-  </si>
-  <si>
     <t>Eminem - Sing For The Moment</t>
   </si>
   <si>
-    <t>Eminem - Beautiful (Official Music Video)</t>
-  </si>
-  <si>
-    <t>Eminem - Not Afraid (Official Video)</t>
-  </si>
-  <si>
     <t>Eminem - Love The Way You Lie ft. Rihanna</t>
   </si>
   <si>
-    <t>Ellie Goulding - Burn (Official Video)</t>
-  </si>
-  <si>
-    <t>Ellie Goulding - Love Me Like You Do (Official Video)</t>
-  </si>
-  <si>
     <t>Taylor Swift - Look What You Made Me Do</t>
   </si>
   <si>
@@ -4778,27 +4332,6 @@
     <t>Taylor Swift - Shake It Off</t>
   </si>
   <si>
-    <t>Katy Perry - California Gurls (Official) ft. Snoop Dogg</t>
-  </si>
-  <si>
-    <t>Katy Perry - Firework (Official)</t>
-  </si>
-  <si>
-    <t>Katy Perry - Dark Horse (Official) ft. Juicy J</t>
-  </si>
-  <si>
-    <t>Katy Perry - Roar (Official)</t>
-  </si>
-  <si>
-    <t>LMFAO ft. Lauren Bennett, GoonRock - Party Rock Anthem (Official Video)</t>
-  </si>
-  <si>
-    <t>Eminem - Without Me (Official Video)</t>
-  </si>
-  <si>
-    <t>LMFAO - Sexy and I Know It (Official Video)</t>
-  </si>
-  <si>
     <t>NF - Leave Me Alone</t>
   </si>
   <si>
@@ -4866,6 +4399,1521 @@
   </si>
   <si>
     <t>Natalie Imbruglia - Torn</t>
+  </si>
+  <si>
+    <t>Vanilla Ice - Ice Ice Baby</t>
+  </si>
+  <si>
+    <t>The Offspring - The Kids Aren't Alright</t>
+  </si>
+  <si>
+    <t>Crazy Town - Butterfly</t>
+  </si>
+  <si>
+    <t>Destiny's Child - Say My Name</t>
+  </si>
+  <si>
+    <t>Dido - Thank You</t>
+  </si>
+  <si>
+    <t>Goo Goo Dolls - "Iris"</t>
+  </si>
+  <si>
+    <t>Backstreet Boys - As Long As You Love Me (Clive's Cut)</t>
+  </si>
+  <si>
+    <t>Ricky Martin - Livin' La Vida Loca</t>
+  </si>
+  <si>
+    <t>Savage Garden - Truly Madly Deeply</t>
+  </si>
+  <si>
+    <t>Nirvana - The Man Who Sold The World</t>
+  </si>
+  <si>
+    <t>Aerosmith - I Don't Want to Miss a Thing</t>
+  </si>
+  <si>
+    <t>The Cranberries - Zombie</t>
+  </si>
+  <si>
+    <t>AC/DC - Thunderstruck</t>
+  </si>
+  <si>
+    <t>Backstreet Boys - I Want It That Way</t>
+  </si>
+  <si>
+    <t>Macy Gray - I Try</t>
+  </si>
+  <si>
+    <t>Fergie - Glamorous ft. Ludacris</t>
+  </si>
+  <si>
+    <t>Semisonic - Closing Time</t>
+  </si>
+  <si>
+    <t>Melissa Etheridge - I'm The Only One</t>
+  </si>
+  <si>
+    <t>TLC - Waterfalls</t>
+  </si>
+  <si>
+    <t>Beck - Loser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinder - Lips Of An Angel </t>
+  </si>
+  <si>
+    <t>Rob Thomas - Lonely No More</t>
+  </si>
+  <si>
+    <t>Uncle Kracker - Drift Away</t>
+  </si>
+  <si>
+    <t>Lou Bega - Mambo No. 5 (A Little Bit of...)</t>
+  </si>
+  <si>
+    <t>Fall Out Boy - Thnks fr th Mmrs</t>
+  </si>
+  <si>
+    <t>The All-American Rejects - Dirty Little Secret</t>
+  </si>
+  <si>
+    <t>Daniel Powter - Bad Day</t>
+  </si>
+  <si>
+    <t>Santana - Smooth ft. Rob Thomas</t>
+  </si>
+  <si>
+    <t>Shakira - Hips Don't Lie ft. Wyclef Jean</t>
+  </si>
+  <si>
+    <t>Weezer - Beverly Hills</t>
+  </si>
+  <si>
+    <t>Cascada - Everytime We Touch</t>
+  </si>
+  <si>
+    <t>James Blunt - You're Beautiful</t>
+  </si>
+  <si>
+    <t>Howie Day- Collide</t>
+  </si>
+  <si>
+    <t>Kelis - Bossy ft. Too $hort</t>
+  </si>
+  <si>
+    <t>The Fray - You Found Me</t>
+  </si>
+  <si>
+    <t>Carrie Underwood - Before He Cheats</t>
+  </si>
+  <si>
+    <t>Good Charlotte - The Anthem</t>
+  </si>
+  <si>
+    <t>The Fray - Over My Head (Cable Car)</t>
+  </si>
+  <si>
+    <t>Fall Out Boy - Sugar, We're Goin Down</t>
+  </si>
+  <si>
+    <t>P!nk - Get This Party Started</t>
+  </si>
+  <si>
+    <t>Bowling For Soup - 1985</t>
+  </si>
+  <si>
+    <t>John Mayer - Daughters</t>
+  </si>
+  <si>
+    <t>Modest Mouse - Float On</t>
+  </si>
+  <si>
+    <t>MGMT - Kids</t>
+  </si>
+  <si>
+    <t>John Mayer - Waiting On the World to Change</t>
+  </si>
+  <si>
+    <t>Christina Aguilera - Ain't No Other Man</t>
+  </si>
+  <si>
+    <t>Shakira - Whenever, Wherever</t>
+  </si>
+  <si>
+    <t>The Fray - How to Save a Life</t>
+  </si>
+  <si>
+    <t>OutKast - Ms. Jackson</t>
+  </si>
+  <si>
+    <t>Leona Lewis - Bleeding Love</t>
+  </si>
+  <si>
+    <t>John Mayer - Your Body Is A Wonderland</t>
+  </si>
+  <si>
+    <t>Usher ft. Lil Jon, Ludacris - Yeah!</t>
+  </si>
+  <si>
+    <t>Lifehouse - You And Me</t>
+  </si>
+  <si>
+    <t>3 Doors Down - Kryptonite</t>
+  </si>
+  <si>
+    <t>Kings Of Leon - Use Somebody</t>
+  </si>
+  <si>
+    <t>Simple Plan - Welcome To my Life</t>
+  </si>
+  <si>
+    <t>Numb - Linkin Park</t>
+  </si>
+  <si>
+    <t>Sum 41 - Fatlip</t>
+  </si>
+  <si>
+    <t>Limp Bizkit - My Way</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls - When I Grow Up</t>
+  </si>
+  <si>
+    <t>Shaggy - Angel ft. Rayvon</t>
+  </si>
+  <si>
+    <t>Green Day: "Boulevard Of Broken Dreams"</t>
+  </si>
+  <si>
+    <t>Green Day - Wake Me Up When September Ends</t>
+  </si>
+  <si>
+    <t>Rihanna - Pon de Replay</t>
+  </si>
+  <si>
+    <t>Lady Gaga - LoveGame</t>
+  </si>
+  <si>
+    <t>Jimmy Eat World - The Middle</t>
+  </si>
+  <si>
+    <t>Gwen Stefani - What You Waiting For?</t>
+  </si>
+  <si>
+    <t>Céline Dion - That's The Way It Is</t>
+  </si>
+  <si>
+    <t>OneRepublic - Apologize</t>
+  </si>
+  <si>
+    <t>Nelly - Hot In Herre</t>
+  </si>
+  <si>
+    <t>Britney Spears - Oops!...I Did It Again</t>
+  </si>
+  <si>
+    <t>Fergie - Big Girls Don't Cry (Personal)</t>
+  </si>
+  <si>
+    <t>Fergie - Fergalicious</t>
+  </si>
+  <si>
+    <t>Nelly - Dilemma ft. Kelly Rowland</t>
+  </si>
+  <si>
+    <t>Avril Lavigne - My Happy Ending</t>
+  </si>
+  <si>
+    <t>Britney Spears - Womanizer (Director's Cut)</t>
+  </si>
+  <si>
+    <t>Train - Drops of Jupiter</t>
+  </si>
+  <si>
+    <t>Kings Of Leon - Sex on Fire</t>
+  </si>
+  <si>
+    <t>Justin Timberlake - SexyBack ft. Timbaland</t>
+  </si>
+  <si>
+    <t>The Black Eyed Peas - Boom Boom Pow</t>
+  </si>
+  <si>
+    <t>Christina Aguilera - Beautiful</t>
+  </si>
+  <si>
+    <t>Evanescence - Call Me When You're Sober</t>
+  </si>
+  <si>
+    <t>Britney Spears - Toxic</t>
+  </si>
+  <si>
+    <t>Nelly Furtado - Say It Right</t>
+  </si>
+  <si>
+    <t>Evanescence - Bring Me To Life</t>
+  </si>
+  <si>
+    <t>Evanescence - Going Under</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson - Breakaway</t>
+  </si>
+  <si>
+    <t>P!nk - So What</t>
+  </si>
+  <si>
+    <t>Gwen Stefani - The Sweet Escape ft. Akon</t>
+  </si>
+  <si>
+    <t>Natasha Bedingfield - Unwritten</t>
+  </si>
+  <si>
+    <t>Sara Bareilles - Love Song</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls - Beep ft. will.i.am</t>
+  </si>
+  <si>
+    <t>Christina Aguilera, Lil' Kim, Mya, Pink - Lady Marmalade</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls - Buttons ft. Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Avril Lavigne - Complicated</t>
+  </si>
+  <si>
+    <t>Justin Timberlake - Rock Your Body</t>
+  </si>
+  <si>
+    <t>Katy Perry - I Kissed A Girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoobastank - The Reason </t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls - Don't Cha ft. Busta Rhymes</t>
+  </si>
+  <si>
+    <t>The Black Eyed Peas - Where Is The Love?</t>
+  </si>
+  <si>
+    <t>Shaggy - It Wasn't Me</t>
+  </si>
+  <si>
+    <t>Bloodhound Gang - The Bad Touch</t>
+  </si>
+  <si>
+    <t>Daft Punk - One More Time</t>
+  </si>
+  <si>
+    <t>Justin Timberlake - Cry Me A River</t>
+  </si>
+  <si>
+    <t>Foster The People - Pumped up Kicks</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson - Stronger (What Doesn't Kill You)</t>
+  </si>
+  <si>
+    <t>Train - Drive By</t>
+  </si>
+  <si>
+    <t>The Lumineers - Ho Hey</t>
+  </si>
+  <si>
+    <t>will.i.am - Scream &amp; Shout ft. Britney Spears</t>
+  </si>
+  <si>
+    <t>Capital Cities - Safe And Sound</t>
+  </si>
+  <si>
+    <t>Avicii - Wake Me Up</t>
+  </si>
+  <si>
+    <t>Passenger | Let Her Go</t>
+  </si>
+  <si>
+    <t>Bastille - Pompeii</t>
+  </si>
+  <si>
+    <t>WALK THE MOON - Shut Up and Dance</t>
+  </si>
+  <si>
+    <t>Lorde - Royals</t>
+  </si>
+  <si>
+    <t>Justin Bieber - Baby ft. Ludacris</t>
+  </si>
+  <si>
+    <t>Justin Timberlake - CAN'T STOP THE FEELING!</t>
+  </si>
+  <si>
+    <t>P!nk - Try</t>
+  </si>
+  <si>
+    <t>Meghan Trainor - Me Too</t>
+  </si>
+  <si>
+    <t>Train - Hey, Soul Sister</t>
+  </si>
+  <si>
+    <t>Katy Perry - Hot N Cold</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson - Because Of You</t>
+  </si>
+  <si>
+    <t>gnash - i hate u, i love u ft. olivia o'brien</t>
+  </si>
+  <si>
+    <t>Jason Mraz - I'm Yours</t>
+  </si>
+  <si>
+    <t>Meghan Trainor - All About That Bass</t>
+  </si>
+  <si>
+    <t>Bruno Mars - Just The Way You Are</t>
+  </si>
+  <si>
+    <t>Sam Smith - Too Good At Goodbyes</t>
+  </si>
+  <si>
+    <t>Sia - Cheap Thrills ft. Sean Paul</t>
+  </si>
+  <si>
+    <t>Panic! At The Disco - High Hopes</t>
+  </si>
+  <si>
+    <t>P!nk - Just Give Me A Reason ft. Nate Ruess</t>
+  </si>
+  <si>
+    <t>Sia - Chandelier</t>
+  </si>
+  <si>
+    <t>Bruno Mars - The Lazy Song</t>
+  </si>
+  <si>
+    <t>Ed Sheeran &amp; Justin Bieber - I Don't Care</t>
+  </si>
+  <si>
+    <t>Ed Sheeran - Thinking Out Loud</t>
+  </si>
+  <si>
+    <t>John Legend - All of Me</t>
+  </si>
+  <si>
+    <t>Fun.: Some Nights</t>
+  </si>
+  <si>
+    <t>Fun.: We Are Young ft. Janelle Monáe</t>
+  </si>
+  <si>
+    <t>Gotye - Somebody That I Used To Know (feat. Kimbra)</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar - i</t>
+  </si>
+  <si>
+    <t>NF - Lie</t>
+  </si>
+  <si>
+    <t>NF - Let You Down</t>
+  </si>
+  <si>
+    <t>Eminem - Headlights ft. Nate Ruess</t>
+  </si>
+  <si>
+    <t>Eminem - Space Bound</t>
+  </si>
+  <si>
+    <t>Eminem - Beautiful</t>
+  </si>
+  <si>
+    <t>Eminem - Not Afraid</t>
+  </si>
+  <si>
+    <t>Ellie Goulding - Burn</t>
+  </si>
+  <si>
+    <t>Ellie Goulding - Love Me Like You Do</t>
+  </si>
+  <si>
+    <t>Katy Perry - California Gurls  ft. Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Katy Perry - Firework</t>
+  </si>
+  <si>
+    <t>Katy Perry - Dark Horse  ft. Juicy J</t>
+  </si>
+  <si>
+    <t>Katy Perry - Roar</t>
+  </si>
+  <si>
+    <t>LMFAO ft. Lauren Bennett, GoonRock - Party Rock Anthem</t>
+  </si>
+  <si>
+    <t>Eminem - Without Me</t>
+  </si>
+  <si>
+    <t>LMFAO - Sexy and I Know It</t>
+  </si>
+  <si>
+    <t>Beautiful Soul</t>
+  </si>
+  <si>
+    <t>Howie Day</t>
+  </si>
+  <si>
+    <t>Green Day</t>
+  </si>
+  <si>
+    <t>Boulevard Of Broken Dreams</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Let Her Go</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>Some Nights</t>
+  </si>
+  <si>
+    <t>We Are Young ft. Janelle Monáe</t>
+  </si>
+  <si>
+    <t>Eagle-Eye Cherry</t>
+  </si>
+  <si>
+    <t>Save Tonight</t>
+  </si>
+  <si>
+    <t>Scatman (ski-ba-bop-ba-dop-bop)</t>
+  </si>
+  <si>
+    <t>When I Come Around</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Rob Zombie</t>
+  </si>
+  <si>
+    <t>Dragula</t>
+  </si>
+  <si>
+    <t>Everlast</t>
+  </si>
+  <si>
+    <t>What it's Like</t>
+  </si>
+  <si>
+    <t>(You Drive Me) Crazy</t>
+  </si>
+  <si>
+    <t>Creed</t>
+  </si>
+  <si>
+    <t>With Arms Wide Open</t>
+  </si>
+  <si>
+    <t>Ace of Base</t>
+  </si>
+  <si>
+    <t>Beautiful Life</t>
+  </si>
+  <si>
+    <t>C+C Music Factory</t>
+  </si>
+  <si>
+    <t>Gonna Make You Sweat (Everybody Dance Now) ft. Freedom Williams</t>
+  </si>
+  <si>
+    <t>The Wallflowers</t>
+  </si>
+  <si>
+    <t>One Headlight</t>
+  </si>
+  <si>
+    <t>Kiss Me</t>
+  </si>
+  <si>
+    <t>"There She Goes" Version</t>
+  </si>
+  <si>
+    <t>House of Pain</t>
+  </si>
+  <si>
+    <t>Jump Around</t>
+  </si>
+  <si>
+    <t>Alanis Morissette</t>
+  </si>
+  <si>
+    <t>Ironic</t>
+  </si>
+  <si>
+    <t>You're Still The One</t>
+  </si>
+  <si>
+    <t>Scatman John</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>Personal Jesus</t>
+  </si>
+  <si>
+    <t>Cypress Hill</t>
+  </si>
+  <si>
+    <t>Insane In The Brain</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>Always Be My Baby</t>
+  </si>
+  <si>
+    <t>Warren G</t>
+  </si>
+  <si>
+    <t>Regulate ft. Nate Dogg</t>
+  </si>
+  <si>
+    <t>Blackstreet ft. Dr. Dre, Queen Pen</t>
+  </si>
+  <si>
+    <t>No Diggity</t>
+  </si>
+  <si>
+    <t>Basket Case</t>
+  </si>
+  <si>
+    <t>Natalie Imbruglia</t>
+  </si>
+  <si>
+    <t>Torn</t>
+  </si>
+  <si>
+    <t>Vanilla Ice</t>
+  </si>
+  <si>
+    <t>Ice Ice Baby</t>
+  </si>
+  <si>
+    <t>The Kids Aren't Alright</t>
+  </si>
+  <si>
+    <t>Crazy Town</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Destiny's Child</t>
+  </si>
+  <si>
+    <t>Say My Name</t>
+  </si>
+  <si>
+    <t>Dido</t>
+  </si>
+  <si>
+    <t>Thank You</t>
+  </si>
+  <si>
+    <t>Radiohead</t>
+  </si>
+  <si>
+    <t>Creep</t>
+  </si>
+  <si>
+    <t>Goo Goo Dolls</t>
+  </si>
+  <si>
+    <t>"Iris"</t>
+  </si>
+  <si>
+    <t>Backstreet Boys</t>
+  </si>
+  <si>
+    <t>As Long As You Love Me (Clive's Cut)</t>
+  </si>
+  <si>
+    <t>Ricky Martin</t>
+  </si>
+  <si>
+    <t>Livin' La Vida Loca</t>
+  </si>
+  <si>
+    <t>Savage Garden</t>
+  </si>
+  <si>
+    <t>Truly Madly Deeply</t>
+  </si>
+  <si>
+    <t>The Man Who Sold The World</t>
+  </si>
+  <si>
+    <t>Aerosmith</t>
+  </si>
+  <si>
+    <t>I Don't Want to Miss a Thing</t>
+  </si>
+  <si>
+    <t>The Cranberries</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>AC/DC</t>
+  </si>
+  <si>
+    <t>Thunderstruck</t>
+  </si>
+  <si>
+    <t>I Want It That Way</t>
+  </si>
+  <si>
+    <t>Macy Gray</t>
+  </si>
+  <si>
+    <t>I Try</t>
+  </si>
+  <si>
+    <t>Fergie</t>
+  </si>
+  <si>
+    <t>Glamorous ft. Ludacris</t>
+  </si>
+  <si>
+    <t>Tinie Tempah</t>
+  </si>
+  <si>
+    <t>Written In The Stars ft. Eric Turner</t>
+  </si>
+  <si>
+    <t>Semisonic</t>
+  </si>
+  <si>
+    <t>Closing Time</t>
+  </si>
+  <si>
+    <t>Melissa Etheridge</t>
+  </si>
+  <si>
+    <t>I'm The Only One</t>
+  </si>
+  <si>
+    <t>Waterfalls</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>Loser</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Sugar Ray</t>
+  </si>
+  <si>
+    <t>Matt Nathanson</t>
+  </si>
+  <si>
+    <t>Come On Get Higher</t>
+  </si>
+  <si>
+    <t>Hinder</t>
+  </si>
+  <si>
+    <t>Lips Of An Angel</t>
+  </si>
+  <si>
+    <t>Jesse McCartney</t>
+  </si>
+  <si>
+    <t>Rob Thomas</t>
+  </si>
+  <si>
+    <t>Lonely No More</t>
+  </si>
+  <si>
+    <t>Uncle Kracker</t>
+  </si>
+  <si>
+    <t>Drift Away</t>
+  </si>
+  <si>
+    <t>Mambo No. 5 (A Little Bit of...)</t>
+  </si>
+  <si>
+    <t>Fall Out Boy</t>
+  </si>
+  <si>
+    <t>Thnks fr th Mmrs</t>
+  </si>
+  <si>
+    <t>The All-American Rejects</t>
+  </si>
+  <si>
+    <t>Dirty Little Secret</t>
+  </si>
+  <si>
+    <t>Daniel Powter</t>
+  </si>
+  <si>
+    <t>Bad Day</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Smooth ft. Rob Thomas</t>
+  </si>
+  <si>
+    <t>Hips Don't Lie ft. Wyclef Jean</t>
+  </si>
+  <si>
+    <t>Weezer</t>
+  </si>
+  <si>
+    <t>Beverly Hills</t>
+  </si>
+  <si>
+    <t>Cascada</t>
+  </si>
+  <si>
+    <t>Everytime We Touch</t>
+  </si>
+  <si>
+    <t>James Blunt</t>
+  </si>
+  <si>
+    <t>You're Beautiful</t>
+  </si>
+  <si>
+    <t>Collide</t>
+  </si>
+  <si>
+    <t>Bossy ft. Too $hort</t>
+  </si>
+  <si>
+    <t>The Fray</t>
+  </si>
+  <si>
+    <t>You Found Me</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Before He Cheats</t>
+  </si>
+  <si>
+    <t>Good Charlotte</t>
+  </si>
+  <si>
+    <t>The Anthem</t>
+  </si>
+  <si>
+    <t>Over My Head (Cable Car)</t>
+  </si>
+  <si>
+    <t>Sugar, We're Goin Down</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Get This Party Started</t>
+  </si>
+  <si>
+    <t>Bowling For Soup</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>John Mayer</t>
+  </si>
+  <si>
+    <t>Daughters</t>
+  </si>
+  <si>
+    <t>Modest Mouse</t>
+  </si>
+  <si>
+    <t>Float On</t>
+  </si>
+  <si>
+    <t>MGMT</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Waiting On the World to Change</t>
+  </si>
+  <si>
+    <t>Gavin DeGraw</t>
+  </si>
+  <si>
+    <t>I Don't Want To Be</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Ain't No Other Man</t>
+  </si>
+  <si>
+    <t>Whenever, Wherever</t>
+  </si>
+  <si>
+    <t>How to Save a Life</t>
+  </si>
+  <si>
+    <t>OutKast</t>
+  </si>
+  <si>
+    <t>Ms. Jackson</t>
+  </si>
+  <si>
+    <t>Leona Lewis</t>
+  </si>
+  <si>
+    <t>Bleeding Love</t>
+  </si>
+  <si>
+    <t>Raise Your Glass</t>
+  </si>
+  <si>
+    <t>Your Body Is A Wonderland</t>
+  </si>
+  <si>
+    <t>Usher ft. Lil Jon, Ludacris</t>
+  </si>
+  <si>
+    <t>Yeah!</t>
+  </si>
+  <si>
+    <t>Lifehouse</t>
+  </si>
+  <si>
+    <t>You And Me</t>
+  </si>
+  <si>
+    <t>3 Doors Down</t>
+  </si>
+  <si>
+    <t>Kryptonite</t>
+  </si>
+  <si>
+    <t>Kings Of Leon</t>
+  </si>
+  <si>
+    <t>Use Somebody</t>
+  </si>
+  <si>
+    <t>Simple Plan</t>
+  </si>
+  <si>
+    <t>Welcome To my Life</t>
+  </si>
+  <si>
+    <t>Numb</t>
+  </si>
+  <si>
+    <t>Sum 41</t>
+  </si>
+  <si>
+    <t>Fatlip</t>
+  </si>
+  <si>
+    <t>Limp Bizkit</t>
+  </si>
+  <si>
+    <t>My Way</t>
+  </si>
+  <si>
+    <t>Jessie J</t>
+  </si>
+  <si>
+    <t>Price Tag ft. B.o.B</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls</t>
+  </si>
+  <si>
+    <t>When I Grow Up</t>
+  </si>
+  <si>
+    <t>Shaggy</t>
+  </si>
+  <si>
+    <t>Angel ft. Rayvon</t>
+  </si>
+  <si>
+    <t>Wake Me Up When September Ends</t>
+  </si>
+  <si>
+    <t>It's My Life</t>
+  </si>
+  <si>
+    <t>Pon de Replay</t>
+  </si>
+  <si>
+    <t>LoveGame</t>
+  </si>
+  <si>
+    <t>Jimmy Eat World</t>
+  </si>
+  <si>
+    <t>The Middle</t>
+  </si>
+  <si>
+    <t>What You Waiting For?</t>
+  </si>
+  <si>
+    <t>Take A Bow</t>
+  </si>
+  <si>
+    <t>Céline Dion</t>
+  </si>
+  <si>
+    <t>That's The Way It Is</t>
+  </si>
+  <si>
+    <t>Snow Patrol</t>
+  </si>
+  <si>
+    <t>Chasing Cars</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>Apologize</t>
+  </si>
+  <si>
+    <t>Hot In Herre</t>
+  </si>
+  <si>
+    <t>Oops!...I Did It Again</t>
+  </si>
+  <si>
+    <t>Big Girls Don't Cry (Personal)</t>
+  </si>
+  <si>
+    <t>Fergalicious</t>
+  </si>
+  <si>
+    <t>Dilemma ft. Kelly Rowland</t>
+  </si>
+  <si>
+    <t>My Happy Ending</t>
+  </si>
+  <si>
+    <t>Womanizer</t>
+  </si>
+  <si>
+    <t>Drops of Jupiter</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Sex on Fire</t>
+  </si>
+  <si>
+    <t>You Belong With Me</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>SexyBack ft. Timbaland</t>
+  </si>
+  <si>
+    <t>Boom Boom Pow</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>Evanescence</t>
+  </si>
+  <si>
+    <t>Call Me When You're Sober</t>
+  </si>
+  <si>
+    <t>*NSYNC</t>
+  </si>
+  <si>
+    <t>Toxic</t>
+  </si>
+  <si>
+    <t>Nelly Furtado</t>
+  </si>
+  <si>
+    <t>Say It Right</t>
+  </si>
+  <si>
+    <t>Bring Me To Life</t>
+  </si>
+  <si>
+    <t>Going Under</t>
+  </si>
+  <si>
+    <t>Breakaway</t>
+  </si>
+  <si>
+    <t>So What</t>
+  </si>
+  <si>
+    <t>The Sweet Escape ft. Akon</t>
+  </si>
+  <si>
+    <t>Unwritten</t>
+  </si>
+  <si>
+    <t>Sara Bareilles</t>
+  </si>
+  <si>
+    <t>Love Song</t>
+  </si>
+  <si>
+    <t>Beep ft. will.i.am</t>
+  </si>
+  <si>
+    <t>Christina Aguilera, Lil' Kim, Mya, Pink</t>
+  </si>
+  <si>
+    <t>Lady Marmalade</t>
+  </si>
+  <si>
+    <t>Nickelback</t>
+  </si>
+  <si>
+    <t>How You Remind Me</t>
+  </si>
+  <si>
+    <t>Enrique Iglesias</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Buttons ft. Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Complicated</t>
+  </si>
+  <si>
+    <t>OK Go</t>
+  </si>
+  <si>
+    <t>Here It Goes Again</t>
+  </si>
+  <si>
+    <t>Rock Your Body</t>
+  </si>
+  <si>
+    <t>I Kissed A Girl</t>
+  </si>
+  <si>
+    <t>Hoobastank</t>
+  </si>
+  <si>
+    <t>The Reason</t>
+  </si>
+  <si>
+    <t>Don't Cha ft. Busta Rhymes</t>
+  </si>
+  <si>
+    <t>Where Is The Love?</t>
+  </si>
+  <si>
+    <t>It Wasn't Me</t>
+  </si>
+  <si>
+    <t>The White Stripes</t>
+  </si>
+  <si>
+    <t>'Seven Nation Army'</t>
+  </si>
+  <si>
+    <t>Bloodhound Gang</t>
+  </si>
+  <si>
+    <t>The Bad Touch</t>
+  </si>
+  <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>One More Time</t>
+  </si>
+  <si>
+    <t>Cry Me A River</t>
+  </si>
+  <si>
+    <t>Hot Chelle Rae</t>
+  </si>
+  <si>
+    <t>Tonight Tonight</t>
+  </si>
+  <si>
+    <t>Foster The People</t>
+  </si>
+  <si>
+    <t>Pumped up Kicks</t>
+  </si>
+  <si>
+    <t>We Found Love ft. Calvin Harris</t>
+  </si>
+  <si>
+    <t>Stronger (What Doesn't Kill You)</t>
+  </si>
+  <si>
+    <t>Drive By</t>
+  </si>
+  <si>
+    <t>Neon Trees</t>
+  </si>
+  <si>
+    <t>Everybody Talks</t>
+  </si>
+  <si>
+    <t>The Lumineers</t>
+  </si>
+  <si>
+    <t>Ho Hey</t>
+  </si>
+  <si>
+    <t>will.i.am</t>
+  </si>
+  <si>
+    <t>Scream &amp; Shout ft. Britney Spears</t>
+  </si>
+  <si>
+    <t>Capital Cities</t>
+  </si>
+  <si>
+    <t>Safe And Sound</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>Wake Me Up</t>
+  </si>
+  <si>
+    <t>Pompeii</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Stay With Me</t>
+  </si>
+  <si>
+    <t>Jessie J, Ariana Grande, Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Bang Bang ft. Ariana Grande, Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Break Free ft. Zedd</t>
+  </si>
+  <si>
+    <t>Lay Me Down</t>
+  </si>
+  <si>
+    <t>WALK THE MOON</t>
+  </si>
+  <si>
+    <t>Shut Up and Dance</t>
+  </si>
+  <si>
+    <t>Lorde</t>
+  </si>
+  <si>
+    <t>Royals</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Baby ft. Ludacris</t>
+  </si>
+  <si>
+    <t>CAN'T STOP THE FEELING!</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Try</t>
+  </si>
+  <si>
+    <t>Meghan Trainor</t>
+  </si>
+  <si>
+    <t>Me Too</t>
+  </si>
+  <si>
+    <t>Hey, Soul Sister</t>
+  </si>
+  <si>
+    <t>Hot N Cold</t>
+  </si>
+  <si>
+    <t>Because Of You</t>
+  </si>
+  <si>
+    <t>gnash</t>
+  </si>
+  <si>
+    <t>i hate u, i love u ft. olivia o'brien</t>
+  </si>
+  <si>
+    <t>Jason Mraz</t>
+  </si>
+  <si>
+    <t>I'm Yours</t>
+  </si>
+  <si>
+    <t>All About That Bass</t>
+  </si>
+  <si>
+    <t>John Newman</t>
+  </si>
+  <si>
+    <t>Love Me Again</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Just The Way You Are</t>
+  </si>
+  <si>
+    <t>Someone Like You</t>
+  </si>
+  <si>
+    <t>Too Good At Goodbyes</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Cheap Thrills ft. Sean Paul</t>
+  </si>
+  <si>
+    <t>High Hopes</t>
+  </si>
+  <si>
+    <t>Fifth Harmony</t>
+  </si>
+  <si>
+    <t>Worth It ft. Kid Ink</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
+    <t>Without Me</t>
+  </si>
+  <si>
+    <t>Just Give Me A Reason ft. Nate Ruess</t>
+  </si>
+  <si>
+    <t>7 rings</t>
+  </si>
+  <si>
+    <t>Chandelier</t>
+  </si>
+  <si>
+    <t>Counting Stars</t>
+  </si>
+  <si>
+    <t>The Lazy Song</t>
+  </si>
+  <si>
+    <t>Ed Sheeran &amp; Justin Bieber</t>
+  </si>
+  <si>
+    <t>I Don't Care</t>
+  </si>
+  <si>
+    <t>Payphone ft. Wiz Khalifa</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>One More Night</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Thinking Out Loud</t>
+  </si>
+  <si>
+    <t>John Legend</t>
+  </si>
+  <si>
+    <t>All of Me</t>
+  </si>
+  <si>
+    <t>Gotye</t>
+  </si>
+  <si>
+    <t>Somebody That I Used To Know (feat. Kimbra)</t>
+  </si>
+  <si>
+    <t>Owl City</t>
+  </si>
+  <si>
+    <t>Fireflies</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>WHY</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ELEMENT.</t>
+  </si>
+  <si>
+    <t>Alright</t>
+  </si>
+  <si>
+    <t>King Kunta</t>
+  </si>
+  <si>
+    <t>LOYALTY. ft. Rihanna</t>
+  </si>
+  <si>
+    <t>DNA.</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar, SZA</t>
+  </si>
+  <si>
+    <t>All The Stars</t>
+  </si>
+  <si>
+    <t>HUMBLE.</t>
+  </si>
+  <si>
+    <t>Warm Up</t>
+  </si>
+  <si>
+    <t>Notepad</t>
+  </si>
+  <si>
+    <t>NO NAME</t>
+  </si>
+  <si>
+    <t>Lie</t>
+  </si>
+  <si>
+    <t>Let You Down</t>
+  </si>
+  <si>
+    <t>Headlights ft. Nate Ruess</t>
+  </si>
+  <si>
+    <t>River (Audio) ft. Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Space Bound</t>
+  </si>
+  <si>
+    <t>Sing For The Moment</t>
+  </si>
+  <si>
+    <t>Not Afraid</t>
+  </si>
+  <si>
+    <t>Love The Way You Lie ft. Rihanna</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Love Me Like You Do</t>
+  </si>
+  <si>
+    <t>Look What You Made Me Do</t>
+  </si>
+  <si>
+    <t>Bad Blood ft. Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>Blank Space</t>
+  </si>
+  <si>
+    <t>Shake It Off</t>
+  </si>
+  <si>
+    <t>California Gurls ft. Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Firework</t>
+  </si>
+  <si>
+    <t>Dark Horse ft. Juicy J</t>
+  </si>
+  <si>
+    <t>Roar</t>
+  </si>
+  <si>
+    <t>LMFAO ft. Lauren Bennett, GoonRock</t>
+  </si>
+  <si>
+    <t>Party Rock Anthem</t>
+  </si>
+  <si>
+    <t>LMFAO</t>
+  </si>
+  <si>
+    <t>Sexy and I Know It</t>
+  </si>
+  <si>
+    <t>Leave Me Alone</t>
   </si>
 </sst>
 </file>
@@ -5240,7 +6288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -11313,27 +12361,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEF1F3B-A8E3-C24C-B299-888FE2B0CC4A}">
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1117</v>
+        <v>961</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>9</v>
@@ -11344,1200 +12394,3581 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>1119</v>
+        <v>962</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>962</v>
+      </c>
+      <c r="E2">
+        <f>LEN(D2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>1120</v>
+      <c r="A3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3">
+        <f>LEN(D3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>1121</v>
+      <c r="A4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E4">
+        <f>LEN(D4)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>1122</v>
+      <c r="A5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E5">
+        <f>LEN(D5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>899</v>
+      <c r="A6" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E6">
+        <f>LEN(D6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>1123</v>
+      <c r="A7" t="s">
+        <v>930</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E7">
+        <f>LEN(D7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>1124</v>
+      <c r="A8" t="s">
+        <v>931</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E8">
+        <f>LEN(D8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>900</v>
+        <v>993</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E9">
+        <f>LEN(D9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E10">
+        <f>LEN(D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E11">
+        <f>LEN(D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>925</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E12">
+        <f>LEN(D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E13">
+        <f>LEN(D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E14">
+        <f>LEN(D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E15">
+        <f>LEN(D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>989</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E16">
+        <f>LEN(D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>996</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E17">
+        <f>LEN(D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E18">
+        <f>LEN(D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>905</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E19">
+        <f>LEN(D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E20">
+        <f>LEN(D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E21">
+        <f>LEN(D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E22">
+        <f>LEN(D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>909</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E23">
+        <f>LEN(D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E24">
+        <f>LEN(D24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>899</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E25">
+        <f>LEN(D25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E26">
+        <f>LEN(D26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E27">
+        <f>LEN(D27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E28">
+        <f>LEN(D28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E29">
+        <f>LEN(D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E30">
+        <f>LEN(D30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>900</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E31">
+        <f>LEN(D31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E32">
+        <f>LEN(D32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E33">
+        <f>LEN(D33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E34">
+        <f>LEN(D34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E35">
+        <f>LEN(D35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E36">
+        <f>LEN(D36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E37">
+        <f>LEN(D37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E38">
+        <f>LEN(D38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>985</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E39">
+        <f>LEN(D39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E40">
+        <f>LEN(D40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E41">
+        <f>LEN(D41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E42">
+        <f>LEN(D42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E43">
+        <f>LEN(D43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E44">
+        <f>LEN(D44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>986</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E45">
+        <f>LEN(D45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>987</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E46">
+        <f>LEN(D46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E47">
+        <f>LEN(D47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E48">
+        <f>LEN(D48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E49">
+        <f>LEN(D49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E50">
+        <f>LEN(D50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E51">
+        <f>LEN(D51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E52">
+        <f>LEN(D52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E53">
+        <f>LEN(D53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>955</v>
+      </c>
+      <c r="B54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E54">
+        <f>LEN(D54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E55">
+        <f>LEN(D55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>953</v>
+      </c>
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E56">
+        <f>LEN(D56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>954</v>
+      </c>
+      <c r="B57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E57">
+        <f>LEN(D57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="B58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E58">
+        <f>LEN(D58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E59">
+        <f>LEN(D59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>917</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E60">
+        <f>LEN(D60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E61">
+        <f>LEN(D61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E62">
+        <f>LEN(D62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E63">
+        <f>LEN(D63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E64">
+        <f>LEN(D64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E65">
+        <f>LEN(D65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E66">
+        <f>LEN(D66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E67">
+        <f>LEN(D67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E68">
+        <f>LEN(D68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>998</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E69">
+        <f>LEN(D69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>932</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E70">
+        <f>LEN(D70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>903</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E71">
+        <f>LEN(D71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E72">
+        <f>LEN(D72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E73">
+        <f>LEN(D73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E74">
+        <f>LEN(D74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E75">
+        <f>LEN(D75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>906</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E76">
+        <f>LEN(D76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E77">
+        <f>LEN(D77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>988</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E78">
+        <f>LEN(D78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E79">
+        <f>LEN(D79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E80">
+        <f>LEN(D80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E81">
+        <f>LEN(D81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E82">
+        <f>LEN(D82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E83">
+        <f>LEN(D83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E84">
+        <f>LEN(D84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B85" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E85">
+        <f>LEN(D85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B86" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E86">
+        <f>LEN(D86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>934</v>
+      </c>
+      <c r="B87" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E87">
+        <f>LEN(D87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E88">
+        <f>LEN(D88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E89">
+        <f>LEN(D89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>920</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E90">
+        <f>LEN(D90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E91">
+        <f>LEN(D91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E92">
+        <f>LEN(D92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>927</v>
+      </c>
+      <c r="B93" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" t="s">
+        <v>319</v>
+      </c>
+      <c r="E93">
+        <f>LEN(D93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>928</v>
+      </c>
+      <c r="B94" t="s">
+        <v>320</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E94">
+        <f>LEN(D94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E95">
+        <f>LEN(D95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E96">
+        <f>LEN(D96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>911</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E97">
+        <f>LEN(D97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>908</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E98">
+        <f>LEN(D98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>924</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E99">
+        <f>LEN(D99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E100">
+        <f>LEN(D100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E101">
+        <f>LEN(D101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E102">
+        <f>LEN(D102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E103">
+        <f>LEN(D103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E104">
+        <f>LEN(D104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>929</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E105">
+        <f>LEN(D105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E106">
+        <f>LEN(D106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E107">
+        <f>LEN(D107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E108">
+        <f>LEN(D108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E109">
+        <f>LEN(D109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E110">
+        <f>LEN(D110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="B111" t="s">
+        <v>346</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E111">
+        <f>LEN(D111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B112" t="s">
+        <v>346</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E112">
+        <f>LEN(D112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="B113" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E113">
+        <f>LEN(D113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B114" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E114">
+        <f>LEN(D114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B115" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E115">
+        <f>LEN(D115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="B116" t="s">
+        <v>346</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E116">
+        <f>LEN(D116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B117" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E117">
+        <f>LEN(D117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B118" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E118">
+        <f>LEN(D118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B119" t="s">
+        <v>355</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E119">
+        <f>LEN(D119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B120" t="s">
+        <v>355</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E120">
+        <f>LEN(D120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>944</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E121">
+        <f>LEN(D121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>947</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E122">
+        <f>LEN(D122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>943</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E123">
+        <f>LEN(D123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>949</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E124">
+        <f>LEN(D124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E125">
+        <f>LEN(D125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>945</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E126">
+        <f>LEN(D126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>946</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E127">
+        <f>LEN(D127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>948</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E128">
+        <f>LEN(D128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E129">
+        <f>LEN(D129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E130">
+        <f>LEN(D130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E131">
+        <f>LEN(D131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B132" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E132">
+        <f>LEN(D132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E133">
+        <f>LEN(D133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E134">
+        <f>LEN(D134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E135">
+        <f>LEN(D135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E136">
+        <f>LEN(D136)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B137" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E137">
+        <f>LEN(D137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E138">
+        <f>LEN(D138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B139" t="s">
+        <v>964</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E139">
+        <f>LEN(D139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B140" t="s">
+        <v>420</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E140">
+        <f>LEN(D140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>997</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E141">
+        <f>LEN(D141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E142">
+        <f>LEN(D142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>938</v>
+      </c>
+      <c r="B143" t="s">
+        <v>436</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E143">
+        <f>LEN(D143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>939</v>
+      </c>
+      <c r="B144" t="s">
+        <v>436</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E144">
+        <f>LEN(D144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>937</v>
+      </c>
+      <c r="B145" t="s">
+        <v>436</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E145">
+        <f>LEN(D145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>940</v>
+      </c>
+      <c r="B146" t="s">
+        <v>436</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E146">
+        <f>LEN(D146)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>904</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E147">
+        <f>LEN(D147)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E148">
+        <f>LEN(D148)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E149">
+        <f>LEN(D149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E150">
+        <f>LEN(D150)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E151">
+        <f>LEN(D151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E152">
+        <f>LEN(D152)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E153">
+        <f>LEN(D153)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B154" t="s">
+        <v>475</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E154">
+        <f>LEN(D154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B155" t="s">
+        <v>481</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E155">
+        <f>LEN(D155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B156" t="s">
+        <v>481</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E156">
+        <f>LEN(D156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E157">
+        <f>LEN(D157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>922</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E158">
+        <f>LEN(D158)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>960</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E159">
+        <f>LEN(D159)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E160">
+        <f>LEN(D160)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E161">
+        <f>LEN(D161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>952</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E162">
+        <f>LEN(D162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>951</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E163">
+        <f>LEN(D163)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>950</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E164">
+        <f>LEN(D164)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>942</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E165">
+        <f>LEN(D165)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>916</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E166">
+        <f>LEN(D166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>992</v>
+      </c>
+      <c r="B167" t="s">
+        <v>487</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E167">
+        <f>LEN(D167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C168" t="s">
+        <v>385</v>
+      </c>
+      <c r="E168">
+        <f>LEN(D168)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>918</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E169">
+        <f>LEN(D169)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E170">
+        <f>LEN(D170)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>936</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E171">
+        <f>LEN(D171)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E172">
+        <f>LEN(D172)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>941</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E173">
+        <f>LEN(D173)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E174">
+        <f>LEN(D174)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E175">
+        <f>LEN(D175)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>907</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E176">
+        <f>LEN(D176)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E177">
+        <f>LEN(D177)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E178">
+        <f>LEN(D178)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B179" t="s">
+        <v>515</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E179">
+        <f>LEN(D179)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E180">
+        <f>LEN(D180)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B181" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E181">
+        <f>LEN(D181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>990</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E182">
+        <f>LEN(D182)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>933</v>
+      </c>
+      <c r="B183" t="s">
+        <v>594</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E183">
+        <f>LEN(D183)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B184" t="s">
+        <v>594</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E184">
+        <f>LEN(D184)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>913</v>
+      </c>
+      <c r="B185" t="s">
+        <v>594</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E185">
+        <f>LEN(D185)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>910</v>
+      </c>
+      <c r="B186" t="s">
+        <v>594</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E186">
+        <f>LEN(D186)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>921</v>
+      </c>
+      <c r="B187" t="s">
+        <v>594</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E187">
+        <f>LEN(D187)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E188">
+        <f>LEN(D188)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E189">
+        <f>LEN(D189)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>926</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E190">
+        <f>LEN(D190)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>923</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E191">
+        <f>LEN(D191)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E192">
+        <f>LEN(D192)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E193">
+        <f>LEN(D193)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E194">
+        <f>LEN(D194)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>991</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E195">
+        <f>LEN(D195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E196">
+        <f>LEN(D196)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>999</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E197">
+        <f>LEN(D197)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E198">
+        <f>LEN(D198)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E199">
+        <f>LEN(D199)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B200" t="s">
+        <v>633</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E200">
+        <f>LEN(D200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B201" t="s">
+        <v>633</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E201">
+        <f>LEN(D201)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="B202" t="s">
+        <v>639</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E202">
+        <f>LEN(D202)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E203">
+        <f>LEN(D203)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E204">
+        <f>LEN(D204)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E205">
+        <f>LEN(D205)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>912</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E206">
+        <f>LEN(D206)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E207">
+        <f>LEN(D207)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>957</v>
+      </c>
+      <c r="B208" t="s">
+        <v>715</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E208">
+        <f>LEN(D208)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>958</v>
+      </c>
+      <c r="B209" t="s">
+        <v>715</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E209">
+        <f>LEN(D209)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>956</v>
+      </c>
+      <c r="B210" t="s">
+        <v>715</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E210">
+        <f>LEN(D210)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>959</v>
+      </c>
+      <c r="B211" t="s">
+        <v>715</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E211">
+        <f>LEN(D211)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>914</v>
+      </c>
+      <c r="B212" t="s">
+        <v>715</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E212">
+        <f>LEN(D212)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E213">
+        <f>LEN(D213)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B214" t="s">
+        <v>728</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E214">
+        <f>LEN(D214)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B215" t="s">
+        <v>728</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E215">
+        <f>LEN(D215)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>994</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E216">
+        <f>LEN(D216)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E217">
+        <f>LEN(D217)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E218">
+        <f>LEN(D218)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E219">
+        <f>LEN(D219)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E220">
+        <f>LEN(D220)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>984</v>
+      </c>
+      <c r="B221" t="s">
+        <v>773</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E221">
+        <f>LEN(D221)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E222">
+        <f>LEN(D222)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E223">
+        <f>LEN(D223)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E224">
+        <f>LEN(D224)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E225">
+        <f>LEN(D225)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E226">
+        <f>LEN(D226)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>919</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E227">
+        <f>LEN(D227)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="B228" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E228">
+        <f>LEN(D228)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B229" t="s">
+        <v>808</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E229">
+        <f>LEN(D229)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B230" t="s">
+        <v>820</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E230">
+        <f>LEN(D230)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B231" t="s">
+        <v>820</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E231">
+        <f>LEN(D231)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B232" t="s">
+        <v>820</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E232">
+        <f>LEN(D232)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E233">
+        <f>LEN(D233)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E234">
+        <f>LEN(D234)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>983</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E235">
+        <f>LEN(D235)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E236">
+        <f>LEN(D236)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="5" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="B237" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E237">
+        <f>LEN(D237)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="B238" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E238">
+        <f>LEN(D238)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="5" t="s">
-        <v>1118</v>
+      <c r="B239" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E239">
+        <f>LEN(D239)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{F1793A0B-E782-8B44-B4F6-F9D87B357ACC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E239">
+      <sortCondition ref="B1:B239"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/earworm_library/earworms.xlsx
+++ b/earworm_library/earworms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zspatter/Documents/GitHub/earworms/earworm_library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F1BB4E-0CF2-734C-91C1-A7C111E3DA60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F21125-357A-9149-A1F5-9F86787A2523}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1570">
   <si>
     <t>it's raining men</t>
   </si>
@@ -4407,9 +4407,6 @@
     <t>The Offspring - The Kids Aren't Alright</t>
   </si>
   <si>
-    <t>Crazy Town - Butterfly</t>
-  </si>
-  <si>
     <t>Destiny's Child - Say My Name</t>
   </si>
   <si>
@@ -4707,9 +4704,6 @@
     <t>Bloodhound Gang - The Bad Touch</t>
   </si>
   <si>
-    <t>Daft Punk - One More Time</t>
-  </si>
-  <si>
     <t>Justin Timberlake - Cry Me A River</t>
   </si>
   <si>
@@ -4881,9 +4875,6 @@
     <t>Let Her Go</t>
   </si>
   <si>
-    <t>Fun</t>
-  </si>
-  <si>
     <t>Some Nights</t>
   </si>
   <si>
@@ -4935,9 +4926,6 @@
     <t>C+C Music Factory</t>
   </si>
   <si>
-    <t>Gonna Make You Sweat (Everybody Dance Now) ft. Freedom Williams</t>
-  </si>
-  <si>
     <t>The Wallflowers</t>
   </si>
   <si>
@@ -4992,9 +4980,6 @@
     <t>Regulate ft. Nate Dogg</t>
   </si>
   <si>
-    <t>Blackstreet ft. Dr. Dre, Queen Pen</t>
-  </si>
-  <si>
     <t>No Diggity</t>
   </si>
   <si>
@@ -5016,12 +5001,6 @@
     <t>The Kids Aren't Alright</t>
   </si>
   <si>
-    <t>Crazy Town</t>
-  </si>
-  <si>
-    <t>Butterfly</t>
-  </si>
-  <si>
     <t>Destiny's Child</t>
   </si>
   <si>
@@ -5043,15 +5022,9 @@
     <t>Goo Goo Dolls</t>
   </si>
   <si>
-    <t>"Iris"</t>
-  </si>
-  <si>
     <t>Backstreet Boys</t>
   </si>
   <si>
-    <t>As Long As You Love Me (Clive's Cut)</t>
-  </si>
-  <si>
     <t>Ricky Martin</t>
   </si>
   <si>
@@ -5502,9 +5475,6 @@
     <t>Beep ft. will.i.am</t>
   </si>
   <si>
-    <t>Christina Aguilera, Lil' Kim, Mya, Pink</t>
-  </si>
-  <si>
     <t>Lady Marmalade</t>
   </si>
   <si>
@@ -5565,12 +5535,6 @@
     <t>The Bad Touch</t>
   </si>
   <si>
-    <t>Daft Punk</t>
-  </si>
-  <si>
-    <t>One More Time</t>
-  </si>
-  <si>
     <t>Cry Me A River</t>
   </si>
   <si>
@@ -5643,9 +5607,6 @@
     <t>Ariana Grande</t>
   </si>
   <si>
-    <t>Break Free ft. Zedd</t>
-  </si>
-  <si>
     <t>Lay Me Down</t>
   </si>
   <si>
@@ -5736,9 +5697,6 @@
     <t>Fifth Harmony</t>
   </si>
   <si>
-    <t>Worth It ft. Kid Ink</t>
-  </si>
-  <si>
     <t>Diamonds</t>
   </si>
   <si>
@@ -5850,12 +5808,6 @@
     <t>Let You Down</t>
   </si>
   <si>
-    <t>Headlights ft. Nate Ruess</t>
-  </si>
-  <si>
-    <t>River (Audio) ft. Ed Sheeran</t>
-  </si>
-  <si>
     <t>Space Bound</t>
   </si>
   <si>
@@ -5914,6 +5866,712 @@
   </si>
   <si>
     <t>Leave Me Alone</t>
+  </si>
+  <si>
+    <t>The Weather Girls</t>
+  </si>
+  <si>
+    <t>It's raining men! Hallelujah!
+It's raining men! Amen!
+It's raining men! Hallelujah!
+It's raining men! Amen!</t>
+  </si>
+  <si>
+    <t>(Bye bye) Don't wanna be a fool for you
+Just another player in your game for two
+You may hate me but it ain't no lie
+Baby, bye, bye, bye
+(Bye bye) Don't really wanna make it tough
+I just wanna tell you that I had enough
+Might sound crazy but it ain't no lie
+Baby, bye, bye, bye</t>
+  </si>
+  <si>
+    <t>If I go crazy, then will you still call me Superman?
+If I'm alive and well, will you be there and holding my hand?
+I'll keep you by my side with my superhuman might
+Kryptonite</t>
+  </si>
+  <si>
+    <t>I was caught
+In the middle of a railroad track (thunder)
+I looked 'round
+And I knew there was no turning back (thunder)
+My mind raced
+And I thought, what could I do? (thunder)
+And I knew
+There was no help, no help from you (thunder)</t>
+  </si>
+  <si>
+    <t>It's a beautiful life
+It's a beautiful life
+It's a beautiful life
+I just wanna be here beside you
+And stay until the break of dawn</t>
+  </si>
+  <si>
+    <t>Hello from the other side
+I must've called a thousand times
+To tell you, I'm sorry for everything that I've done
+But when I call, you never seem to be home
+Hello from the outside
+At least, I can say that I've tried
+To tell you, I'm sorry for breaking your heart
+But it don't matter, it clearly doesn't tear you apart anymore</t>
+  </si>
+  <si>
+    <t>Never mind, I'll find someone like you
+I wish nothing but the best for you, too
+"Don't forget me," I beg
+"I'll remember," you said
+Sometimes it lasts in love, but sometimes it hurts instead
+Sometimes it lasts in love, but sometimes it hurts instead</t>
+  </si>
+  <si>
+    <t>Don't want to close my eyes
+I don't want to fall asleep
+'Cause I'd miss you, baby
+And I don't wanna miss a thing
+'Cause even when I dream of you (even when I dream)
+The sweetest dream would never do
+I'd still miss you, babe
+And I don't want to miss a thing</t>
+  </si>
+  <si>
+    <t>It's like rain on your wedding day
+It's a free ride when you've already paid
+It's the good advice that you just didn't take
+Who would've thought—it figures!</t>
+  </si>
+  <si>
+    <t>Yeah, breakfast at Tiffany's and bottles of bubbles
+Girls with tattoos who like getting in trouble
+Lashes and diamonds, ATM machines
+Buy myself all of my favorite things (yeah)</t>
+  </si>
+  <si>
+    <t>This is the part when I say I don't want ya
+I'm stronger than I've been before
+This is the part when I break free
+'Cause I can't resist it no more</t>
+  </si>
+  <si>
+    <t>Break Free</t>
+  </si>
+  <si>
+    <t>So wake me up when it's all over
+When I'm wiser and I'm older
+All this time I was finding myself
+And I didn't know﻿ I was lost</t>
+  </si>
+  <si>
+    <t>Why'd you have to go and make things so complicated?
+I see the way you're
+Actin' like you're somebody else, gets me frustrated
+Life's like this, you
+And you fall, and you crawl, and you break
+And you take what you get
+And you turn it into honesty
+And promise me, I'm never gonna find you fake it
+No, no, no</t>
+  </si>
+  <si>
+    <t>You were everything, everything that I wanted (that I wanted)
+We were meant to be, supposed to be, but we lost it (we lost it)
+All of the memories so close to me, just fade away
+All this time you were pretending
+So much for my happy ending</t>
+  </si>
+  <si>
+    <t>I don't care, who you are, where you're from
+What you did as long as you love me
+Who you are, where you're from
+Don't care what you did as long as you love me</t>
+  </si>
+  <si>
+    <t>As Long As You Love Me</t>
+  </si>
+  <si>
+    <t>Tell me why
+Ain't nothing but a heartache
+Tell me why
+Ain't nothing but a mistake
+Tell me why
+I never want to hear you say
+I want it that way</t>
+  </si>
+  <si>
+    <t>But if you close your eyes
+Does it almost feel like nothing changed at all?
+And if you close your eyes
+Does it almost feel like you've been here before?
+How am I going to be an optimist about this?
+How am I going to be an optimist about this?</t>
+  </si>
+  <si>
+    <t>I don't want another pretty face
+I don't want just anyone to hold
+I don't want my love to go to waste
+I want you and your beautiful soul</t>
+  </si>
+  <si>
+    <t>Soy un perdedor
+I'm a loser baby, so why don't you kill me?
+(Double barrel buckshot)
+Soy un perdedor
+I'm a loser baby, so why don't you kill me?</t>
+  </si>
+  <si>
+    <t>I like the way you work it
+No diggity, I got to bag it up, bag it up
+I like the way you work it
+No diggity, I got to bag it up, bag it up, girl
+I like the way you work it
+No diggity, I got to bag it up, bag it up
+I like the way you work it
+No diggity, I got to bag it up, get up</t>
+  </si>
+  <si>
+    <t>Blackstreet</t>
+  </si>
+  <si>
+    <t>Do it now
+You and me, baby, ain't nothing but mammals
+So, let's do it like they do on the Discovery Channel
+Do it again now
+You and me, baby, ain't nothing but mammals
+So, let's do it like they do on the Discovery Channel</t>
+  </si>
+  <si>
+    <t>It's my life, it's now or never
+I ain't gonna live forever
+I just want to live while I'm alive
+(It's my life) My heart is like an open highway
+Like Frankie said, "I did it my way"
+I just wanna live while I'm alive
+It's my life</t>
+  </si>
+  <si>
+    <t>Since Bruce Springsteen, Madonna
+Way before Nirvana
+There was U2 and Blondie
+And music still on MTV
+Her two kids in high school
+They tell her that she’s uncool
+Cause she's still preoccupied
+With 19, 19, 1985</t>
+  </si>
+  <si>
+    <t>You drive me crazy, I just can't sleep
+I'm so excited, I'm in too deep
+Whoa, crazy, but it feels alright
+Baby, thinking of you keeps me up all night
+Oh, oh</t>
+  </si>
+  <si>
+    <t>Oops!... I did it again
+I played with your heart
+Got lost in the game
+Oh, baby, baby
+Oops, you think I'm in love
+That I'm sent from above
+I'm not that innocent</t>
+  </si>
+  <si>
+    <t>With a taste of your lips, I'm on a ride
+You're toxic, I'm slippin' under
+With a taste of a poison paradise
+I'm addicted to you
+Don't you know that you're toxic?
+And I love what you do
+Don't you know that you're toxic?</t>
+  </si>
+  <si>
+    <t>Womanizer, woman-womanizer, you're a womanizer
+Oh, womanizer, oh, you're a womanizer, baby
+You-you-you are, you-you-you are
+Womanizer, womanizer, womanizer</t>
+  </si>
+  <si>
+    <t>When I see your face
+There's not a thing that I would change
+Cause you're amazing just the way you are
+And when you smile
+The whole world stops and stares for a while
+Cause, girl, you're amazing just the way you are</t>
+  </si>
+  <si>
+    <t>Today, I don't feel like doing anything
+I just wanna lay in my bed
+Don't feel like picking up my phone
+So leave a message at the tone
+Cause today, I swear, I'm not doing anything</t>
+  </si>
+  <si>
+    <t>Gonna Make You Sweat (Everybody Dance Now)</t>
+  </si>
+  <si>
+    <t>Everybody dance now!
+Everybody dance now!
+Everybody dance now!
+Everybody dance now!</t>
+  </si>
+  <si>
+    <t>(Safe and sound)
+We're safe and sound
+(Safe and sound)
+We're safe and sound
+(Hold your ground)
+We're safe and sound
+(Safe and sound)</t>
+  </si>
+  <si>
+    <t>I dug my key into the side
+Of his pretty little souped up four-wheel drive
+Carved my name into his leather seats
+I took a Louisville slugger to both headlights
+Slashed a hole in all four tires
+Maybe next time, he'll think before he cheats</t>
+  </si>
+  <si>
+    <t>Cause everytime we touch
+I get this feeling
+And everytime we kiss
+I swear I could fly
+Can't you feel my heart beat fast?
+I want this to last
+Need you by my side</t>
+  </si>
+  <si>
+    <t>When you want it the most, there's no easy way out
+When you're ready to go and your heart's left in doubt
+Don't give up on your faith
+Love comes to those who believe it
+And that's the way it is</t>
+  </si>
+  <si>
+    <t>Ain't no other man can stand up next to you
+Ain't no other man on the planet does what you do (what you do)
+You're the kind of guy, a girl finds in a blue moon
+You got soul, you got class, you got style, you're badass
+Ain't no other man it's true (alright)
+Ain't no other man but you</t>
+  </si>
+  <si>
+    <t>I am beautiful no matter what they say
+Words can't bring me down
+I am beautiful in every single way
+Yes, words can't bring me down, oh no
+So don't you bring me down today</t>
+  </si>
+  <si>
+    <t>Lil’ Kim, Mýa, Christina Aguilera &amp; P!nk</t>
+  </si>
+  <si>
+    <t>Gitchie, gitchie, ya-ya, da-da (hey, hey, hey)
+Gitchie, gitchie, ya-ya, here (here)
+Mocha Chocolata, ya-ya (ooh, yeah)
+Creole Lady Marmalade
+What-what, what-what, what-what
+Ooh, oh</t>
+  </si>
+  <si>
+    <t>With arms wide open under the sunlight
+Welcome to this place I'll show you everything
+With arms wide open now everything has changed
+I'll show you love, I'll show you everything</t>
+  </si>
+  <si>
+    <t>Insane in the membrane
+Insane in the brain!
+Insane in the membrane
+Insane in the brain!
+Insane in the membrane
+Crazy insane, got no brain!
+Insane in the membrane
+Insane in the brain!</t>
+  </si>
+  <si>
+    <t>Because you had a bad day
+You're taking one down
+You sing a sad song just to turn it around
+You say you don't know
+You tell me, don't lie
+You work at a smile and you go for a ride
+You had a bad day
+The camera don't lie
+You're coming back down and you really don't mind
+You had a bad day
+You had a bad day</t>
+  </si>
+  <si>
+    <t>Your own personal Jesus
+Someone to hear your prayers
+Someone who cares
+Your own personal Jesus
+Someone to hear your prayers
+Someone who's there</t>
+  </si>
+  <si>
+    <t>Say my name, say my name
+If no one is around you
+Say baby I love you
+If you ain't runnin' games
+Say my name, say my name
+You actin' kinda shady
+Ain't callin' me baby
+Why the sudden change?</t>
+  </si>
+  <si>
+    <t>And I want to thank you
+For giving me the best day of my life
+Oh, just to be with you
+Is having the best day of my life</t>
+  </si>
+  <si>
+    <t>Save tonight
+And fight the break of dawn
+Come tomorrow
+Tomorrow I'll be gone
+Save tonight
+And fight the break of dawn
+Come tomorrow
+Tomorrow I'll be gone</t>
+  </si>
+  <si>
+    <t>So honey, now, take me into your loving arms
+Kiss me under the light of a thousand stars
+Place your head on my beating heart, I'm thinking out loud
+And maybe we found love right where we are</t>
+  </si>
+  <si>
+    <t>Cause I don't care when I'm with my baby, yeah
+All the bad things disappear
+And you're making me feel like maybe I am somebody
+I can deal with the bad nights
+When I'm with my baby, yeah
+Ooh, ooh, ooh, ooh, ooh, ooh</t>
+  </si>
+  <si>
+    <t>I took a pill in ibiza</t>
+  </si>
+  <si>
+    <t>When the lights turned down, they don't know what they heard
+Strike the match, play it loud, giving love to the world
+We'll be raising our hands, shining up to the sky
+'Cause we got the fire, fire, fire
+Yeah, we got the fire, fire, fire
+And we gonna let it burn, burn, burn, burn
+We gonna let it burn, burn, burn, burn
+Gonna let it burn, burn, burn, burn
+We gonna let it burn, burn, burn, burn</t>
+  </si>
+  <si>
+    <t>So love me like you do, la-la-love me like you do
+Love me like you do, la-la-love me like you do
+Touch me like you do, ta-ta-touch me like you do
+What are you waiting for?</t>
+  </si>
+  <si>
+    <t>In my shoes, just to see what it's like to be me
+I'll be you, let's trade shoes
+Just to see what it'd be like to
+Feel your pain, you feel mine
+Go inside each other's minds
+Just to see what we find
+Look at shit through each other's eyes</t>
+  </si>
+  <si>
+    <t>I guess we are who we are
+Headlights shining in the dark night, I drive on
+Maybe we took this too far</t>
+  </si>
+  <si>
+    <t>Headlights</t>
+  </si>
+  <si>
+    <t>Just gonna stand there and watch me burn?
+Well, that's all right because I like the way it hurts
+Just gonna stand there and hear me cry?
+Well, that's all right because I love the way you lie
+I love the way you lie</t>
+  </si>
+  <si>
+    <t>I’m not afraid (I’m not afraid)
+To take a stand (To take a stand)
+Everybody (Everybody)
+Come take my hand (Come take my hand)
+We’ll walk this road together, through the storm
+Whatever weather, cold or warm
+Just lettin' you know that you’re not alone
+Holla if you feel like you’ve been down the same road</t>
+  </si>
+  <si>
+    <t>Careful What Your Wish For</t>
+  </si>
+  <si>
+    <t>So be careful what you wish for, 'cause you just might get it
+And if you get it, then you just might not know what to do with it
+'Cause it might just come back on you ten-fold</t>
+  </si>
+  <si>
+    <t>I've been a liar, been a thief
+Been a lover, been a cheat
+All my sins need holy water, feel it washing over me
+Well, little one, I don't want to admit to something
+If all it's gonna cause is pain
+Truth and my lies right now are falling like the rain
+So let the river run</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>(Come on!) Sing with me (sing!), sing for the year (sing it!)
+Sing for the laughter and sing for the tear (come on!)
+Sing it with me, it's just for today
+Maybe tomorrow the good Lord will take you away</t>
+  </si>
+  <si>
+    <t>I'm a space-bound rocket ship and your heart's the Moon
+And I'm aimin' right at you, right at you
+250,000 miles on a clear night in June
+And I'm aimin' right at you
+Right at you, right at you</t>
+  </si>
+  <si>
+    <t>Lately I really feel like I'm rollin' for delf
+Like Philly, feel like I'm losin' control of myself
+I sincerely apologize if all that I sound like
+Is I'm complainin' but life keeps on complicatin'
+And I'm debatin' on leavin' this world this evenin'
+Even my girls can see I'm grievin', I try and hide it
+But I can't, why do I act like I'm all high and mighty
+When inside I'm dyin'? I am finally realizin' I need
+Help, can't do it myself, too weak
+Two weeks I've been havin' ups and downs goin' through peaks
+And valleys, dilly-dallyin' 'round with the idea
+Of endin' this shit right here,</t>
+  </si>
+  <si>
+    <t>I can be your hero, baby
+I can kiss away the pain
+I will stand by you forever
+You can take my breath away</t>
+  </si>
+  <si>
+    <t>Going Through Changes</t>
+  </si>
+  <si>
+    <t>Now this looks like a job for me
+So everybody, just follow me
+‘Cause we need a little controversy
+‘Cause it feels so empty without me
+I said this looks like a job for me
+So everybody, just follow me
+‘Cause we need a little controversy
+‘Cause it feels so empty without me</t>
+  </si>
+  <si>
+    <t>Let's get down to business
+I don't got no time to play around, what is this?
+Must be a circus in town, let's shut the shit down
+On these clowns; can I get a witness? (Hell yeah!)</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Square Dance</t>
+  </si>
+  <si>
+    <t>C'mon now! Let's all get on down!
+Let's do-si-do now! We gon' have a good ol' time
+Don't be scared, ‘cause there ain't nothin' to worry about
+Let your hair down, and square dance with me!</t>
+  </si>
+  <si>
+    <t>Til the roof comes off, 'til the lights go out
+'Til my legs give out, can't shut my mouth
+'Til the smoke clears out, am I high? Perhaps
+I'ma rip this shit 'til my bones collapse</t>
+  </si>
+  <si>
+    <t>Till I Collapse</t>
+  </si>
+  <si>
+    <t>Wake me up, Wake me up inside
+I can't wake up ,Wake me up inside
+Save me, Call my name and save me from the dark
+Wake me up, Bid my blood to run
+I can't wake up, Before I come undone
+Save me, Save me from the nothing I've become</t>
+  </si>
+  <si>
+    <t>Don't cry to me
+If you loved me
+You would be here with me
+You want me
+Come find me
+Make up your mind</t>
+  </si>
+  <si>
+    <t>I'm going under (going under)
+Drowning in you (drowning in you)
+I'm falling forever (falling forever)
+I've got to break through
+I'm going under</t>
+  </si>
+  <si>
+    <t>God forbid you ever had to walk a mile in his shoes
+Cause then you really might know what it's like to sing the blues
+Then you really might know what it's like (what it's like)
+Then you really might know what it's like (what it's like)</t>
+  </si>
+  <si>
+    <t>We're going down, down in an earlier round
+And sugar, we're going down swinging
+I'll be your number one with a bullet
+A loaded God complex, cock it and pull it</t>
+  </si>
+  <si>
+    <t>One night and one more time
+Thanks for the memories
+Even though they weren't so great
+"He tastes like you only sweeter"
+One night, yeah, and one more time
+Thanks for the memories, thanks for the memories
+"See, he tastes like you only sweeter"</t>
+  </si>
+  <si>
+    <t>I hope you know, I hope you know
+That this has nothing to do with you
+It's personal, myself and I
+We got some straightening out to do
+And I'm gonna miss you like a child misses their blanket
+But I've got to get a move on with my life
+It's time to be a big girl now
+And big girls don't cry
+Don't cry, don't cry, don't cry</t>
+  </si>
+  <si>
+    <t>Fergalicious definition, make the boys go loco
+They want my treasures so they get their pleasures from my photo
+You can see me, you can squeeze me
+I ain't easy, I ain't sleazy</t>
+  </si>
+  <si>
+    <t>We flying first class, up in the sky
+Popping champagne
+Living my life in the fast lane
+I won't change by the glamorous
+Ooh, the flossy, flossy
+The glamorous
+The glamorous, glamorous
+By the glamorous
+Ooh, the flossy, flossy
+The glamorous
+The glamorous, glamorous
+By the glamorous
+Ooh, the flossy, flossy</t>
+  </si>
+  <si>
+    <t>Give it to me I'm worth it, baby, I'm worth it
+Uh huh, I'm worth it, gimme gimme, I'm worth it
+Give it to me I'm worth it, baby, I'm worth it
+Uh huh, I'm worth it, gimme gimme, I'm worth it</t>
+  </si>
+  <si>
+    <t>Worth It</t>
+  </si>
+  <si>
+    <t>I just wanna fly
+Put your arms around me, baby
+Put your arms around me, baby
+I just wanna fly
+Put your arms around me, baby
+Put your arms around me, baby</t>
+  </si>
+  <si>
+    <t>All the other kids with the pumped up kicks
+You better run, better run, outrun my gun
+All the other kids with the pumped up kicks
+You better run, better run, faster than my bullet
+All the other kids with the pumped up kicks</t>
+  </si>
+  <si>
+    <t>Fun.</t>
+  </si>
+  <si>
+    <t>Some nights, I stay up cashing in my bad luck
+Some nights, I call it a draw
+Some nights, I wish that my lips could build a castle
+Some nights, I wish they'd just fall off
+But I still wake up, I still see your ghost
+Oh, Lord, I'm still not sure what I stand for, oh
+What do I stand for?
+What do I stand for?
+Most nights, I don't know anymore</t>
+  </si>
+  <si>
+    <t>Tonight
+We are young
+So let's set the world on fire
+We can burn brighter
+Than the sun
+Tonight
+We are young
+So let's set the world on fire
+We can burn brighter
+Than the sun</t>
+  </si>
+  <si>
+    <t>I don't want to be
+Anything other than what I've been trying to be lately
+All I have to do is think of me
+And I have peace of mind
+I'm tired of looking 'round rooms
+Wondering what I've got to do
+Or who I'm supposed to be
+I don't want to be anything other than me</t>
+  </si>
+  <si>
+    <t>I hate you, I love you
+I hate that I love you
+Don't want to, but I can't put
+Nobody else above you
+I hate you, I love you
+I hate that I want you
+You want her, you need her
+And I'll never be her</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>And I don't want the world to see me
+'Cause I don't think that they'd understand
+When everything's made to be broken
+I just want you to know who I am</t>
+  </si>
+  <si>
+    <t>I don't ever wanna– I don't ever wanna be you
+Don't wanna be just like you
+Uh, what I'm saying is
+This is the anthem, throw all your hands up
+You, don't wanna be you</t>
+  </si>
+  <si>
+    <t>But you didn't have to cut me off
+Make out like it never happened and that we were nothing
+And I don't even need your love
+But you treat me like a stranger and that feels so rough
+No, you didn't have to stoop so low
+Have your friends collect your records and then change your number
+I guess that I don't need that though
+Now you're just somebody that I used to know
+Now you're just somebody that I used to know
+Now you're just somebody that I used to know</t>
   </si>
 </sst>
 </file>
@@ -5953,7 +6611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5972,6 +6630,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11329,7 +11994,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11371,6 +12036,11 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12361,11 +13031,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEF1F3B-A8E3-C24C-B299-888FE2B0CC4A}">
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12373,6 +13043,7 @@
     <col min="1" max="1" width="69.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12392,82 +13063,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="B2" t="s">
-        <v>1150</v>
+      <c r="B2" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C2" t="s">
         <v>962</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>1473</v>
+      </c>
       <c r="E2">
         <f>LEN(D2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>915</v>
       </c>
       <c r="B3" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="C3" t="s">
         <v>471</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>1474</v>
+      </c>
       <c r="E3">
         <f>LEN(D3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B4" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="C4" t="s">
-        <v>1290</v>
+        <v>1281</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1475</v>
       </c>
       <c r="E4">
         <f>LEN(D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C5" t="s">
-        <v>1210</v>
+        <v>1201</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1476</v>
       </c>
       <c r="E5">
         <f>LEN(D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>968</v>
       </c>
       <c r="B6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C6" t="s">
-        <v>1159</v>
+        <v>1156</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1477</v>
       </c>
       <c r="E6">
         <f>LEN(D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>930</v>
       </c>
@@ -12475,14 +13161,17 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>1420</v>
+        <v>1407</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1478</v>
       </c>
       <c r="E7">
         <f>LEN(D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>931</v>
       </c>
@@ -12490,224 +13179,269 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>1422</v>
+        <v>1409</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1479</v>
       </c>
       <c r="E8">
         <f>LEN(D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B9" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="C9" t="s">
-        <v>1206</v>
+        <v>1197</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1480</v>
       </c>
       <c r="E9">
         <f>LEN(D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>972</v>
       </c>
       <c r="B10" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C10" t="s">
-        <v>1169</v>
+        <v>1165</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1481</v>
       </c>
       <c r="E10">
         <f>LEN(D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>935</v>
       </c>
       <c r="B11" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="C11" t="s">
-        <v>1432</v>
+        <v>1418</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1482</v>
       </c>
       <c r="E11">
         <f>LEN(D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>925</v>
       </c>
       <c r="B12" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1397</v>
+        <v>1384</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>1483</v>
       </c>
       <c r="E12">
         <f>LEN(D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B13" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="C13" t="s">
-        <v>1390</v>
+        <v>1378</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1485</v>
       </c>
       <c r="E13">
         <f>LEN(D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>1357</v>
+        <v>1347</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>1486</v>
       </c>
       <c r="E14">
         <f>LEN(D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>1325</v>
+        <v>1316</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1487</v>
       </c>
       <c r="E15">
         <f>LEN(D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B16" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1199</v>
+        <v>1190</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1488</v>
       </c>
       <c r="E16">
         <f>LEN(D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B17" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="C17" t="s">
-        <v>1211</v>
+        <v>1202</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>1490</v>
       </c>
       <c r="E17">
         <f>LEN(D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>1391</v>
+        <v>1379</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1491</v>
       </c>
       <c r="E18">
         <f>LEN(D18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>905</v>
       </c>
       <c r="B19" t="s">
-        <v>1137</v>
+        <v>1222</v>
       </c>
       <c r="C19" t="s">
-        <v>1231</v>
+        <v>1135</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1492</v>
       </c>
       <c r="E19">
-        <f>LEN(D19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <f>LEN(B19)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B20" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="C20" t="s">
-        <v>1224</v>
+        <v>1215</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1493</v>
       </c>
       <c r="E20">
         <f>LEN(D20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="B21" t="s">
-        <v>1180</v>
+      <c r="B21" s="5" t="s">
+        <v>1495</v>
       </c>
       <c r="C21" t="s">
-        <v>1181</v>
+        <v>1176</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1494</v>
       </c>
       <c r="E21">
         <f>LEN(D21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B22" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="C22" t="s">
-        <v>1370</v>
+        <v>1360</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>1496</v>
       </c>
       <c r="E22">
         <f>LEN(D22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>909</v>
       </c>
@@ -12715,29 +13449,35 @@
         <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>1307</v>
+        <v>1298</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1497</v>
       </c>
       <c r="E23">
         <f>LEN(D23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="C24" t="s">
-        <v>1265</v>
+        <v>1256</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>1498</v>
       </c>
       <c r="E24">
         <f>LEN(D24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>899</v>
       </c>
@@ -12745,877 +13485,1032 @@
         <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>1155</v>
+        <v>1152</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>1499</v>
       </c>
       <c r="E25">
         <f>LEN(D25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B26" t="s">
         <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>1321</v>
+        <v>1312</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1500</v>
       </c>
       <c r="E26">
         <f>LEN(D26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B27" t="s">
         <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>1338</v>
+        <v>1329</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1501</v>
       </c>
       <c r="E27">
         <f>LEN(D27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B28" t="s">
         <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>1326</v>
+        <v>1317</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1502</v>
       </c>
       <c r="E28">
         <f>LEN(D28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B29" t="s">
         <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>1421</v>
+        <v>1408</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1503</v>
       </c>
       <c r="E29">
         <f>LEN(D29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B30" t="s">
         <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>1435</v>
+        <v>1421</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>1504</v>
       </c>
       <c r="E30">
         <f>LEN(D30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>900</v>
       </c>
       <c r="B31" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1161</v>
+        <v>1157</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>1506</v>
       </c>
       <c r="E31">
         <f>LEN(D31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B32" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="C32" t="s">
-        <v>1388</v>
+        <v>1376</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>1507</v>
       </c>
       <c r="E32">
         <f>LEN(D32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B33" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="C33" t="s">
-        <v>1257</v>
+        <v>1248</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>1508</v>
       </c>
       <c r="E33">
         <f>LEN(D33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B34" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="C34" t="s">
-        <v>1249</v>
+        <v>1240</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>1509</v>
       </c>
       <c r="E34">
         <f>LEN(D34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B35" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="C35" t="s">
-        <v>1315</v>
+        <v>1306</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>1510</v>
       </c>
       <c r="E35">
         <f>LEN(D35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B36" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="C36" t="s">
-        <v>1276</v>
+        <v>1267</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>1511</v>
       </c>
       <c r="E36">
         <f>LEN(D36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B37" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="C37" t="s">
-        <v>1334</v>
+        <v>1325</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>1512</v>
       </c>
       <c r="E37">
         <f>LEN(D37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1350</v>
+        <v>1074</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1513</v>
       </c>
       <c r="C38" t="s">
-        <v>1351</v>
+        <v>1341</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>1514</v>
       </c>
       <c r="E38">
         <f>LEN(D38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>985</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>967</v>
       </c>
       <c r="B39" t="s">
-        <v>1188</v>
+        <v>1153</v>
       </c>
       <c r="C39" t="s">
-        <v>1189</v>
+        <v>1154</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>1515</v>
       </c>
       <c r="E39">
         <f>LEN(D39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="B40" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="C40" t="s">
-        <v>1157</v>
+        <v>1171</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>1516</v>
       </c>
       <c r="E40">
         <f>LEN(D40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>977</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1008</v>
       </c>
       <c r="B41" t="s">
-        <v>1174</v>
+        <v>1232</v>
       </c>
       <c r="C41" t="s">
-        <v>1175</v>
+        <v>1233</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>1517</v>
       </c>
       <c r="E41">
         <f>LEN(D41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1085</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>975</v>
       </c>
       <c r="B42" t="s">
-        <v>1371</v>
+        <v>1168</v>
       </c>
       <c r="C42" t="s">
-        <v>1372</v>
+        <v>1169</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1518</v>
       </c>
       <c r="E42">
         <f>LEN(D42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1009</v>
+        <v>985</v>
       </c>
       <c r="B43" t="s">
-        <v>1241</v>
+        <v>1183</v>
       </c>
       <c r="C43" t="s">
-        <v>1242</v>
+        <v>1184</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>1519</v>
       </c>
       <c r="E43">
         <f>LEN(D43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>975</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>986</v>
       </c>
       <c r="B44" t="s">
-        <v>1172</v>
+        <v>1185</v>
       </c>
       <c r="C44" t="s">
-        <v>1173</v>
+        <v>1186</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1520</v>
       </c>
       <c r="E44">
         <f>LEN(D44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>986</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>976</v>
       </c>
       <c r="B45" t="s">
-        <v>1190</v>
+        <v>1143</v>
       </c>
       <c r="C45" t="s">
-        <v>1191</v>
+        <v>1144</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>1521</v>
       </c>
       <c r="E45">
         <f>LEN(D45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>987</v>
+        <v>1114</v>
       </c>
       <c r="B46" t="s">
-        <v>1192</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>1193</v>
+        <v>1428</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>1522</v>
       </c>
       <c r="E46">
         <f>LEN(D46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>976</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1113</v>
       </c>
       <c r="B47" t="s">
-        <v>1146</v>
+        <v>1422</v>
       </c>
       <c r="C47" t="s">
-        <v>1147</v>
+        <v>1423</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>1523</v>
       </c>
       <c r="E47">
         <f>LEN(D47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>1456</v>
       </c>
       <c r="C48" t="s">
-        <v>1442</v>
+        <v>1457</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>1525</v>
       </c>
       <c r="E48">
         <f>LEN(D48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1115</v>
+        <v>1127</v>
       </c>
       <c r="B49" t="s">
-        <v>1436</v>
+        <v>1456</v>
       </c>
       <c r="C49" t="s">
-        <v>1437</v>
+        <v>1458</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>1526</v>
       </c>
       <c r="E49">
         <f>LEN(D49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="B50" t="s">
-        <v>1472</v>
+        <v>219</v>
       </c>
       <c r="C50" t="s">
-        <v>1473</v>
+        <v>1325</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1527</v>
       </c>
       <c r="E50">
         <f>LEN(D50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="B51" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1474</v>
+        <v>219</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>1528</v>
       </c>
       <c r="E51">
         <f>LEN(D51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1126</v>
+        <v>955</v>
       </c>
       <c r="B52" t="s">
         <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>1334</v>
+        <v>1455</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>1530</v>
       </c>
       <c r="E52">
         <f>LEN(D52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1124</v>
-      </c>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>219</v>
       </c>
-      <c r="C53" t="s">
-        <v>1466</v>
+      <c r="C53" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>1533</v>
       </c>
       <c r="E53">
         <f>LEN(D53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>955</v>
+        <v>1125</v>
       </c>
       <c r="B54" t="s">
         <v>219</v>
       </c>
       <c r="C54" t="s">
-        <v>1471</v>
+        <v>1454</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1531</v>
       </c>
       <c r="E54">
         <f>LEN(D54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1127</v>
+        <v>953</v>
       </c>
       <c r="B55" t="s">
         <v>219</v>
       </c>
-      <c r="C55" t="s">
-        <v>1470</v>
+      <c r="C55" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>1534</v>
       </c>
       <c r="E55">
         <f>LEN(D55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B56" t="s">
         <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>1467</v>
+        <v>1453</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1536</v>
       </c>
       <c r="E56">
         <f>LEN(D56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>954</v>
+        <v>1123</v>
       </c>
       <c r="B57" t="s">
         <v>219</v>
       </c>
       <c r="C57" t="s">
-        <v>1469</v>
+        <v>1452</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>1537</v>
       </c>
       <c r="E57">
         <f>LEN(D57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>1125</v>
-      </c>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>219</v>
       </c>
-      <c r="C58" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E58">
-        <f>LEN(D58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B59" t="s">
         <v>219</v>
       </c>
       <c r="C59" t="s">
-        <v>1430</v>
+        <v>1416</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1541</v>
       </c>
       <c r="E59">
         <f>LEN(D59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>917</v>
-      </c>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1355</v>
+        <v>219</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1545</v>
       </c>
       <c r="E60">
         <f>LEN(D60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>1067</v>
-      </c>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1341</v>
+        <v>219</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>1546</v>
       </c>
       <c r="E61">
         <f>LEN(D61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>1064</v>
-      </c>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1336</v>
+        <v>219</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>1542</v>
       </c>
       <c r="E62">
         <f>LEN(D62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1068</v>
+        <v>917</v>
       </c>
       <c r="B63" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="C63" t="s">
-        <v>1342</v>
+        <v>1345</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>1539</v>
       </c>
       <c r="E63">
         <f>LEN(D63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>966</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1066</v>
       </c>
       <c r="B64" t="s">
-        <v>1153</v>
+        <v>1326</v>
       </c>
       <c r="C64" t="s">
-        <v>1154</v>
+        <v>1332</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>1548</v>
       </c>
       <c r="E64">
         <f>LEN(D64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1021</v>
+        <v>1063</v>
       </c>
       <c r="B65" t="s">
-        <v>1237</v>
+        <v>1326</v>
       </c>
       <c r="C65" t="s">
-        <v>1261</v>
+        <v>1327</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>1549</v>
       </c>
       <c r="E65">
         <f>LEN(D65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1007</v>
+        <v>1067</v>
       </c>
       <c r="B66" t="s">
-        <v>1237</v>
+        <v>1326</v>
       </c>
       <c r="C66" t="s">
-        <v>1238</v>
+        <v>1333</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>1550</v>
       </c>
       <c r="E66">
         <f>LEN(D66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>1054</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>966</v>
       </c>
       <c r="B67" t="s">
-        <v>1214</v>
+        <v>1150</v>
       </c>
       <c r="C67" t="s">
-        <v>1322</v>
+        <v>1151</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>1551</v>
       </c>
       <c r="E67">
         <f>LEN(D67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="B68" t="s">
-        <v>1214</v>
+        <v>1228</v>
       </c>
       <c r="C68" t="s">
-        <v>1323</v>
+        <v>1252</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>1552</v>
       </c>
       <c r="E68">
         <f>LEN(D68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="B69" t="s">
-        <v>1214</v>
+        <v>1228</v>
       </c>
       <c r="C69" t="s">
-        <v>1215</v>
+        <v>1229</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>1553</v>
       </c>
       <c r="E69">
         <f>LEN(D69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>932</v>
+        <v>1053</v>
       </c>
       <c r="B70" t="s">
-        <v>1427</v>
+        <v>1205</v>
       </c>
       <c r="C70" t="s">
-        <v>1428</v>
+        <v>1313</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>1554</v>
       </c>
       <c r="E70">
         <f>LEN(D70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>903</v>
+        <v>1054</v>
       </c>
       <c r="B71" t="s">
-        <v>1225</v>
+        <v>1205</v>
       </c>
       <c r="C71" t="s">
-        <v>1226</v>
+        <v>1314</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>1555</v>
       </c>
       <c r="E71">
         <f>LEN(D71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1087</v>
+        <v>997</v>
       </c>
       <c r="B72" t="s">
-        <v>1376</v>
+        <v>1205</v>
       </c>
       <c r="C72" t="s">
-        <v>1377</v>
+        <v>1206</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>1556</v>
       </c>
       <c r="E72">
         <f>LEN(D72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1087</v>
+        <v>932</v>
       </c>
       <c r="B73" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1377</v>
+        <v>1414</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>1557</v>
       </c>
       <c r="E73">
         <f>LEN(D73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1118</v>
+        <v>903</v>
       </c>
       <c r="B74" t="s">
-        <v>1143</v>
+        <v>1216</v>
       </c>
       <c r="C74" t="s">
-        <v>1144</v>
+        <v>1217</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>1559</v>
       </c>
       <c r="E74">
         <f>LEN(D74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1119</v>
+        <v>1085</v>
       </c>
       <c r="B75" t="s">
-        <v>1143</v>
+        <v>1364</v>
       </c>
       <c r="C75" t="s">
-        <v>1145</v>
+        <v>1365</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>1560</v>
       </c>
       <c r="E75">
         <f>LEN(D75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>906</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1273</v>
+        <v>1116</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1561</v>
       </c>
       <c r="C76" t="s">
-        <v>1274</v>
+        <v>1141</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>1562</v>
       </c>
       <c r="E76">
         <f>LEN(D76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1413</v>
+        <v>1117</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1561</v>
       </c>
       <c r="C77" t="s">
-        <v>1414</v>
+        <v>1142</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>1563</v>
       </c>
       <c r="E77">
         <f>LEN(D77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>988</v>
+        <v>906</v>
       </c>
       <c r="B78" t="s">
-        <v>1196</v>
+        <v>1264</v>
       </c>
       <c r="C78" t="s">
-        <v>1197</v>
+        <v>1265</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>1564</v>
       </c>
       <c r="E78">
         <f>LEN(D78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1019</v>
+        <v>1103</v>
       </c>
       <c r="B79" t="s">
-        <v>1258</v>
+        <v>1400</v>
       </c>
       <c r="C79" t="s">
-        <v>1259</v>
+        <v>1401</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>1565</v>
       </c>
       <c r="E79">
         <f>LEN(D79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1120</v>
+        <v>987</v>
       </c>
       <c r="B80" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1446</v>
+        <v>1189</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>1567</v>
       </c>
       <c r="E80">
         <f>LEN(D80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>981</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1018</v>
       </c>
       <c r="B81" t="s">
-        <v>1139</v>
+        <v>1249</v>
       </c>
       <c r="C81" t="s">
-        <v>1182</v>
+        <v>1250</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>1568</v>
       </c>
       <c r="E81">
         <f>LEN(D81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1044</v>
+        <v>1118</v>
       </c>
       <c r="B82" t="s">
-        <v>1139</v>
+        <v>1431</v>
       </c>
       <c r="C82" t="s">
-        <v>1140</v>
+        <v>1432</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>1569</v>
       </c>
       <c r="E82">
         <f>LEN(D82)</f>
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>1045</v>
+      <c r="A83" s="5" t="s">
+        <v>981</v>
       </c>
       <c r="B83" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C83" t="s">
-        <v>1306</v>
+        <v>1177</v>
       </c>
       <c r="E83">
         <f>LEN(D83)</f>
@@ -13623,14 +14518,14 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>963</v>
+      <c r="A84" t="s">
+        <v>1043</v>
       </c>
       <c r="B84" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C84" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="E84">
         <f>LEN(D84)</f>
@@ -13639,13 +14534,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1071</v>
+        <v>1044</v>
       </c>
       <c r="B85" t="s">
-        <v>299</v>
+        <v>1137</v>
       </c>
       <c r="C85" t="s">
-        <v>1345</v>
+        <v>1297</v>
       </c>
       <c r="E85">
         <f>LEN(D85)</f>
@@ -13653,14 +14548,14 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>1049</v>
+      <c r="A86" s="5" t="s">
+        <v>963</v>
       </c>
       <c r="B86" t="s">
-        <v>299</v>
+        <v>1137</v>
       </c>
       <c r="C86" t="s">
-        <v>1312</v>
+        <v>1146</v>
       </c>
       <c r="E86">
         <f>LEN(D86)</f>
@@ -13669,13 +14564,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>934</v>
+        <v>1070</v>
       </c>
       <c r="B87" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C87" t="s">
-        <v>1430</v>
+        <v>1336</v>
       </c>
       <c r="E87">
         <f>LEN(D87)</f>
@@ -13684,13 +14579,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1003</v>
+        <v>1048</v>
       </c>
       <c r="B88" t="s">
-        <v>1229</v>
+        <v>299</v>
       </c>
       <c r="C88" t="s">
-        <v>1230</v>
+        <v>1303</v>
       </c>
       <c r="E88">
         <f>LEN(D88)</f>
@@ -13699,13 +14594,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1080</v>
+        <v>934</v>
       </c>
       <c r="B89" t="s">
-        <v>1362</v>
+        <v>308</v>
       </c>
       <c r="C89" t="s">
-        <v>1363</v>
+        <v>1416</v>
       </c>
       <c r="E89">
         <f>LEN(D89)</f>
@@ -13714,13 +14609,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>920</v>
+        <v>1002</v>
       </c>
       <c r="B90" t="s">
-        <v>1374</v>
+        <v>1220</v>
       </c>
       <c r="C90" t="s">
-        <v>1375</v>
+        <v>1221</v>
       </c>
       <c r="E90">
         <f>LEN(D90)</f>
@@ -13728,14 +14623,14 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>971</v>
+      <c r="A91" t="s">
+        <v>1079</v>
       </c>
       <c r="B91" t="s">
-        <v>1166</v>
+        <v>1352</v>
       </c>
       <c r="C91" t="s">
-        <v>1167</v>
+        <v>1353</v>
       </c>
       <c r="E91">
         <f>LEN(D91)</f>
@@ -13744,13 +14639,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1015</v>
+        <v>920</v>
       </c>
       <c r="B92" t="s">
-        <v>1138</v>
+        <v>1362</v>
       </c>
       <c r="C92" t="s">
-        <v>1252</v>
+        <v>1363</v>
       </c>
       <c r="E92">
         <f>LEN(D92)</f>
@@ -13758,14 +14653,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>927</v>
+      <c r="A93" s="5" t="s">
+        <v>971</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>1162</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>1163</v>
       </c>
       <c r="E93">
         <f>LEN(D93)</f>
@@ -13774,13 +14669,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>928</v>
+        <v>1014</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
+        <v>1136</v>
       </c>
       <c r="C94" t="s">
-        <v>1406</v>
+        <v>1243</v>
       </c>
       <c r="E94">
         <f>LEN(D94)</f>
@@ -13789,13 +14684,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1014</v>
+        <v>927</v>
       </c>
       <c r="B95" t="s">
-        <v>1250</v>
+        <v>320</v>
       </c>
       <c r="C95" t="s">
-        <v>1251</v>
+        <v>319</v>
       </c>
       <c r="E95">
         <f>LEN(D95)</f>
@@ -13804,13 +14699,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1106</v>
+        <v>928</v>
       </c>
       <c r="B96" t="s">
-        <v>1415</v>
+        <v>320</v>
       </c>
       <c r="C96" t="s">
-        <v>1416</v>
+        <v>1393</v>
       </c>
       <c r="E96">
         <f>LEN(D96)</f>
@@ -13819,13 +14714,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>911</v>
+        <v>1013</v>
       </c>
       <c r="B97" t="s">
-        <v>1231</v>
+        <v>1241</v>
       </c>
       <c r="C97" t="s">
-        <v>1137</v>
+        <v>1242</v>
       </c>
       <c r="E97">
         <f>LEN(D97)</f>
@@ -13834,13 +14729,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>908</v>
+        <v>1104</v>
       </c>
       <c r="B98" t="s">
-        <v>1300</v>
+        <v>1402</v>
       </c>
       <c r="C98" t="s">
-        <v>1301</v>
+        <v>1403</v>
       </c>
       <c r="E98">
         <f>LEN(D98)</f>
@@ -13849,13 +14744,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="B99" t="s">
-        <v>1394</v>
+        <v>1222</v>
       </c>
       <c r="C99" t="s">
-        <v>1395</v>
+        <v>1135</v>
       </c>
       <c r="E99">
         <f>LEN(D99)</f>
@@ -13864,13 +14759,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1048</v>
+        <v>908</v>
       </c>
       <c r="B100" t="s">
-        <v>1310</v>
+        <v>1291</v>
       </c>
       <c r="C100" t="s">
-        <v>1311</v>
+        <v>1292</v>
       </c>
       <c r="E100">
         <f>LEN(D100)</f>
@@ -13879,13 +14774,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1117</v>
+        <v>924</v>
       </c>
       <c r="B101" t="s">
-        <v>1443</v>
+        <v>1382</v>
       </c>
       <c r="C101" t="s">
-        <v>1444</v>
+        <v>1383</v>
       </c>
       <c r="E101">
         <f>LEN(D101)</f>
@@ -13894,13 +14789,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1024</v>
+        <v>1047</v>
       </c>
       <c r="B102" t="s">
-        <v>1266</v>
+        <v>1301</v>
       </c>
       <c r="C102" t="s">
-        <v>1267</v>
+        <v>1302</v>
       </c>
       <c r="E102">
         <f>LEN(D102)</f>
@@ -13909,13 +14804,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1027</v>
+        <v>1115</v>
       </c>
       <c r="B103" t="s">
-        <v>1266</v>
+        <v>1429</v>
       </c>
       <c r="C103" t="s">
-        <v>1272</v>
+        <v>1430</v>
       </c>
       <c r="E103">
         <f>LEN(D103)</f>
@@ -13924,13 +14819,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="B104" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="C104" t="s">
-        <v>1284</v>
+        <v>1258</v>
       </c>
       <c r="E104">
         <f>LEN(D104)</f>
@@ -13939,13 +14834,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>929</v>
+        <v>1026</v>
       </c>
       <c r="B105" t="s">
-        <v>1418</v>
+        <v>1257</v>
       </c>
       <c r="C105" t="s">
-        <v>1419</v>
+        <v>1263</v>
       </c>
       <c r="E105">
         <f>LEN(D105)</f>
@@ -13954,13 +14849,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1098</v>
+        <v>1032</v>
       </c>
       <c r="B106" t="s">
-        <v>1403</v>
+        <v>1257</v>
       </c>
       <c r="C106" t="s">
-        <v>1404</v>
+        <v>1275</v>
       </c>
       <c r="E106">
         <f>LEN(D106)</f>
@@ -13969,13 +14864,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1099</v>
+        <v>929</v>
       </c>
       <c r="B107" t="s">
-        <v>1331</v>
+        <v>1405</v>
       </c>
       <c r="C107" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E107">
         <f>LEN(D107)</f>
@@ -13984,13 +14879,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="B108" t="s">
-        <v>1331</v>
+        <v>1390</v>
       </c>
       <c r="C108" t="s">
-        <v>1373</v>
+        <v>1391</v>
       </c>
       <c r="E108">
         <f>LEN(D108)</f>
@@ -13999,13 +14894,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1078</v>
+        <v>1097</v>
       </c>
       <c r="B109" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C109" t="s">
-        <v>1360</v>
+        <v>1392</v>
       </c>
       <c r="E109">
         <f>LEN(D109)</f>
@@ -14014,13 +14909,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1061</v>
+        <v>1084</v>
       </c>
       <c r="B110" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C110" t="s">
-        <v>1332</v>
+        <v>1361</v>
       </c>
       <c r="E110">
         <f>LEN(D110)</f>
@@ -14029,13 +14924,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1130</v>
+        <v>1077</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
+        <v>1322</v>
       </c>
       <c r="C111" t="s">
-        <v>1479</v>
+        <v>1350</v>
       </c>
       <c r="E111">
         <f>LEN(D111)</f>
@@ -14044,13 +14939,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1132</v>
+        <v>1060</v>
       </c>
       <c r="B112" t="s">
-        <v>346</v>
+        <v>1322</v>
       </c>
       <c r="C112" t="s">
-        <v>1481</v>
+        <v>1323</v>
       </c>
       <c r="E112">
         <f>LEN(D112)</f>
@@ -14059,13 +14954,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B113" t="s">
         <v>346</v>
       </c>
       <c r="C113" t="s">
-        <v>1480</v>
+        <v>1463</v>
       </c>
       <c r="E113">
         <f>LEN(D113)</f>
@@ -14074,13 +14969,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1103</v>
+        <v>1130</v>
       </c>
       <c r="B114" t="s">
         <v>346</v>
       </c>
       <c r="C114" t="s">
-        <v>1411</v>
+        <v>1465</v>
       </c>
       <c r="E114">
         <f>LEN(D114)</f>
@@ -14089,13 +14984,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1079</v>
+        <v>1129</v>
       </c>
       <c r="B115" t="s">
         <v>346</v>
       </c>
       <c r="C115" t="s">
-        <v>1361</v>
+        <v>1464</v>
       </c>
       <c r="E115">
         <f>LEN(D115)</f>
@@ -14104,13 +14999,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="B116" t="s">
         <v>346</v>
       </c>
       <c r="C116" t="s">
-        <v>1482</v>
+        <v>1398</v>
       </c>
       <c r="E116">
         <f>LEN(D116)</f>
@@ -14119,13 +15014,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1016</v>
+        <v>1078</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C117" t="s">
-        <v>1253</v>
+        <v>1351</v>
       </c>
       <c r="E117">
         <f>LEN(D117)</f>
@@ -14134,13 +15029,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1104</v>
+        <v>1131</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C118" t="s">
-        <v>1412</v>
+        <v>1466</v>
       </c>
       <c r="E118">
         <f>LEN(D118)</f>
@@ -14149,13 +15044,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1069</v>
+        <v>1015</v>
       </c>
       <c r="B119" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C119" t="s">
-        <v>1343</v>
+        <v>1244</v>
       </c>
       <c r="E119">
         <f>LEN(D119)</f>
@@ -14164,13 +15059,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1088</v>
+        <v>1102</v>
       </c>
       <c r="B120" t="s">
         <v>355</v>
       </c>
       <c r="C120" t="s">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="E120">
         <f>LEN(D120)</f>
@@ -14179,13 +15074,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>944</v>
+        <v>1068</v>
       </c>
       <c r="B121" t="s">
-        <v>1451</v>
+        <v>355</v>
       </c>
       <c r="C121" t="s">
-        <v>1454</v>
+        <v>1334</v>
       </c>
       <c r="E121">
         <f>LEN(D121)</f>
@@ -14194,13 +15089,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>947</v>
+        <v>1086</v>
       </c>
       <c r="B122" t="s">
-        <v>1451</v>
+        <v>355</v>
       </c>
       <c r="C122" t="s">
-        <v>1457</v>
+        <v>1367</v>
       </c>
       <c r="E122">
         <f>LEN(D122)</f>
@@ -14209,13 +15104,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B123" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="C123" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
       <c r="E123">
         <f>LEN(D123)</f>
@@ -14224,13 +15119,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B124" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="C124" t="s">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="E124">
         <f>LEN(D124)</f>
@@ -14239,13 +15134,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1121</v>
+        <v>943</v>
       </c>
       <c r="B125" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="C125" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="E125">
         <f>LEN(D125)</f>
@@ -14254,13 +15149,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B126" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="C126" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="E126">
         <f>LEN(D126)</f>
@@ -14269,13 +15164,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>946</v>
+        <v>1119</v>
       </c>
       <c r="B127" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="C127" t="s">
-        <v>1456</v>
+        <v>1438</v>
       </c>
       <c r="E127">
         <f>LEN(D127)</f>
@@ -14284,13 +15179,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B128" t="s">
-        <v>1458</v>
+        <v>1437</v>
       </c>
       <c r="C128" t="s">
-        <v>1459</v>
+        <v>1441</v>
       </c>
       <c r="E128">
         <f>LEN(D128)</f>
@@ -14299,13 +15194,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1060</v>
+        <v>946</v>
       </c>
       <c r="B129" t="s">
-        <v>1291</v>
+        <v>1437</v>
       </c>
       <c r="C129" t="s">
-        <v>1329</v>
+        <v>1442</v>
       </c>
       <c r="E129">
         <f>LEN(D129)</f>
@@ -14314,13 +15209,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1037</v>
+        <v>948</v>
       </c>
       <c r="B130" t="s">
-        <v>1291</v>
+        <v>1444</v>
       </c>
       <c r="C130" t="s">
-        <v>1292</v>
+        <v>1445</v>
       </c>
       <c r="E130">
         <f>LEN(D130)</f>
@@ -14328,14 +15223,14 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
-        <v>970</v>
+      <c r="A131" t="s">
+        <v>1059</v>
       </c>
       <c r="B131" t="s">
-        <v>1164</v>
+        <v>1282</v>
       </c>
       <c r="C131" t="s">
-        <v>1165</v>
+        <v>1320</v>
       </c>
       <c r="E131">
         <f>LEN(D131)</f>
@@ -14344,13 +15239,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>1282</v>
       </c>
       <c r="C132" t="s">
-        <v>1309</v>
+        <v>1283</v>
       </c>
       <c r="E132">
         <f>LEN(D132)</f>
@@ -14358,14 +15253,14 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>1032</v>
+      <c r="A133" s="5" t="s">
+        <v>970</v>
       </c>
       <c r="B133" t="s">
-        <v>1281</v>
+        <v>1160</v>
       </c>
       <c r="C133" t="s">
-        <v>1282</v>
+        <v>1161</v>
       </c>
       <c r="E133">
         <f>LEN(D133)</f>
@@ -14374,13 +15269,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="B134" t="s">
-        <v>1287</v>
+        <v>370</v>
       </c>
       <c r="C134" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
       <c r="E134">
         <f>LEN(D134)</f>
@@ -14389,13 +15284,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="B135" t="s">
-        <v>1298</v>
+        <v>1272</v>
       </c>
       <c r="C135" t="s">
-        <v>1299</v>
+        <v>1273</v>
       </c>
       <c r="E135">
         <f>LEN(D135)</f>
@@ -14404,13 +15299,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1136</v>
+        <v>1034</v>
       </c>
       <c r="B136" t="s">
-        <v>1485</v>
+        <v>1278</v>
       </c>
       <c r="C136" t="s">
-        <v>1486</v>
+        <v>1279</v>
       </c>
       <c r="E136">
         <f>LEN(D136)</f>
@@ -14419,13 +15314,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1134</v>
+        <v>1040</v>
       </c>
       <c r="B137" t="s">
-        <v>1483</v>
+        <v>1289</v>
       </c>
       <c r="C137" t="s">
-        <v>1484</v>
+        <v>1290</v>
       </c>
       <c r="E137">
         <f>LEN(D137)</f>
@@ -14434,13 +15329,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1097</v>
+        <v>1134</v>
       </c>
       <c r="B138" t="s">
-        <v>1401</v>
+        <v>1469</v>
       </c>
       <c r="C138" t="s">
-        <v>1402</v>
+        <v>1470</v>
       </c>
       <c r="E138">
         <f>LEN(D138)</f>
@@ -14448,14 +15343,14 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="s">
-        <v>964</v>
+      <c r="A139" t="s">
+        <v>1132</v>
       </c>
       <c r="B139" t="s">
-        <v>964</v>
+        <v>1467</v>
       </c>
       <c r="C139" t="s">
-        <v>1150</v>
+        <v>1468</v>
       </c>
       <c r="E139">
         <f>LEN(D139)</f>
@@ -14464,13 +15359,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1006</v>
+        <v>1095</v>
       </c>
       <c r="B140" t="s">
-        <v>420</v>
+        <v>1388</v>
       </c>
       <c r="C140" t="s">
-        <v>1236</v>
+        <v>1389</v>
       </c>
       <c r="E140">
         <f>LEN(D140)</f>
@@ -14478,14 +15373,14 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>997</v>
+      <c r="A141" s="5" t="s">
+        <v>964</v>
       </c>
       <c r="B141" t="s">
-        <v>1212</v>
+        <v>964</v>
       </c>
       <c r="C141" t="s">
-        <v>1213</v>
+        <v>1147</v>
       </c>
       <c r="E141">
         <f>LEN(D141)</f>
@@ -14493,14 +15388,14 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
-        <v>978</v>
+      <c r="A142" t="s">
+        <v>1005</v>
       </c>
       <c r="B142" t="s">
-        <v>1176</v>
+        <v>420</v>
       </c>
       <c r="C142" t="s">
-        <v>1177</v>
+        <v>1227</v>
       </c>
       <c r="E142">
         <f>LEN(D142)</f>
@@ -14509,13 +15404,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>938</v>
+        <v>996</v>
       </c>
       <c r="B143" t="s">
-        <v>436</v>
+        <v>1203</v>
       </c>
       <c r="C143" t="s">
-        <v>1439</v>
+        <v>1204</v>
       </c>
       <c r="E143">
         <f>LEN(D143)</f>
@@ -14523,14 +15418,14 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>939</v>
+      <c r="A144" s="5" t="s">
+        <v>978</v>
       </c>
       <c r="B144" t="s">
-        <v>436</v>
+        <v>1172</v>
       </c>
       <c r="C144" t="s">
-        <v>1440</v>
+        <v>1173</v>
       </c>
       <c r="E144">
         <f>LEN(D144)</f>
@@ -14539,13 +15434,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B145" t="s">
         <v>436</v>
       </c>
       <c r="C145" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
       <c r="E145">
         <f>LEN(D145)</f>
@@ -14554,13 +15449,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B146" t="s">
         <v>436</v>
       </c>
       <c r="C146" t="s">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="E146">
         <f>LEN(D146)</f>
@@ -14569,13 +15464,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>904</v>
+        <v>937</v>
       </c>
       <c r="B147" t="s">
-        <v>1227</v>
+        <v>436</v>
       </c>
       <c r="C147" t="s">
-        <v>1228</v>
+        <v>1424</v>
       </c>
       <c r="E147">
         <f>LEN(D147)</f>
@@ -14584,13 +15479,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1107</v>
+        <v>940</v>
       </c>
       <c r="B148" t="s">
-        <v>1408</v>
+        <v>436</v>
       </c>
       <c r="C148" t="s">
-        <v>1417</v>
+        <v>1427</v>
       </c>
       <c r="E148">
         <f>LEN(D148)</f>
@@ -14599,13 +15494,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1101</v>
+        <v>904</v>
       </c>
       <c r="B149" t="s">
-        <v>1408</v>
+        <v>1218</v>
       </c>
       <c r="C149" t="s">
-        <v>1409</v>
+        <v>1219</v>
       </c>
       <c r="E149">
         <f>LEN(D149)</f>
@@ -14614,13 +15509,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="B150" t="s">
-        <v>1220</v>
+        <v>1395</v>
       </c>
       <c r="C150" t="s">
-        <v>1221</v>
+        <v>1404</v>
       </c>
       <c r="E150">
         <f>LEN(D150)</f>
@@ -14629,13 +15524,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1026</v>
+        <v>1099</v>
       </c>
       <c r="B151" t="s">
-        <v>1270</v>
+        <v>1395</v>
       </c>
       <c r="C151" t="s">
-        <v>1271</v>
+        <v>1396</v>
       </c>
       <c r="E151">
         <f>LEN(D151)</f>
@@ -14644,13 +15539,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="B152" t="s">
-        <v>1268</v>
+        <v>1211</v>
       </c>
       <c r="C152" t="s">
-        <v>1269</v>
+        <v>1212</v>
       </c>
       <c r="E152">
         <f>LEN(D152)</f>
@@ -14658,14 +15553,14 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="5" t="s">
-        <v>982</v>
+      <c r="A153" t="s">
+        <v>1025</v>
       </c>
       <c r="B153" t="s">
-        <v>1183</v>
+        <v>1261</v>
       </c>
       <c r="C153" t="s">
-        <v>1184</v>
+        <v>1262</v>
       </c>
       <c r="E153">
         <f>LEN(D153)</f>
@@ -14674,13 +15569,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1072</v>
+        <v>1024</v>
       </c>
       <c r="B154" t="s">
-        <v>475</v>
+        <v>1259</v>
       </c>
       <c r="C154" t="s">
-        <v>1346</v>
+        <v>1260</v>
       </c>
       <c r="E154">
         <f>LEN(D154)</f>
@@ -14688,14 +15583,14 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>1056</v>
+      <c r="A155" s="5" t="s">
+        <v>982</v>
       </c>
       <c r="B155" t="s">
-        <v>481</v>
+        <v>1178</v>
       </c>
       <c r="C155" t="s">
-        <v>1324</v>
+        <v>1179</v>
       </c>
       <c r="E155">
         <f>LEN(D155)</f>
@@ -14704,13 +15599,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="B156" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C156" t="s">
-        <v>1320</v>
+        <v>1337</v>
       </c>
       <c r="E156">
         <f>LEN(D156)</f>
@@ -14719,13 +15614,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="B157" t="s">
-        <v>1339</v>
+        <v>481</v>
       </c>
       <c r="C157" t="s">
-        <v>1340</v>
+        <v>1315</v>
       </c>
       <c r="E157">
         <f>LEN(D157)</f>
@@ -14734,13 +15629,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>922</v>
+        <v>1051</v>
       </c>
       <c r="B158" t="s">
-        <v>1381</v>
+        <v>481</v>
       </c>
       <c r="C158" t="s">
-        <v>1382</v>
+        <v>1311</v>
       </c>
       <c r="E158">
         <f>LEN(D158)</f>
@@ -14749,13 +15644,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>960</v>
+        <v>1065</v>
       </c>
       <c r="B159" t="s">
-        <v>1449</v>
+        <v>1330</v>
       </c>
       <c r="C159" t="s">
-        <v>1487</v>
+        <v>1331</v>
       </c>
       <c r="E159">
         <f>LEN(D159)</f>
@@ -14764,13 +15659,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1123</v>
+        <v>922</v>
       </c>
       <c r="B160" t="s">
-        <v>1449</v>
+        <v>1369</v>
       </c>
       <c r="C160" t="s">
-        <v>1465</v>
+        <v>1370</v>
       </c>
       <c r="E160">
         <f>LEN(D160)</f>
@@ -14779,13 +15674,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1122</v>
+        <v>960</v>
       </c>
       <c r="B161" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="C161" t="s">
-        <v>1464</v>
+        <v>1471</v>
       </c>
       <c r="E161">
         <f>LEN(D161)</f>
@@ -14794,13 +15689,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>952</v>
+        <v>1121</v>
       </c>
       <c r="B162" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="C162" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="E162">
         <f>LEN(D162)</f>
@@ -14809,13 +15704,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>951</v>
+        <v>1120</v>
       </c>
       <c r="B163" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="C163" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="E163">
         <f>LEN(D163)</f>
@@ -14824,13 +15719,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B164" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C164" t="s">
         <v>1449</v>
-      </c>
-      <c r="C164" t="s">
-        <v>1461</v>
       </c>
       <c r="E164">
         <f>LEN(D164)</f>
@@ -14839,13 +15734,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="B165" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="C165" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E165">
         <f>LEN(D165)</f>
@@ -14854,13 +15749,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>916</v>
+        <v>950</v>
       </c>
       <c r="B166" t="s">
-        <v>1352</v>
+        <v>1435</v>
       </c>
       <c r="C166" t="s">
-        <v>1353</v>
+        <v>1447</v>
       </c>
       <c r="E166">
         <f>LEN(D166)</f>
@@ -14869,13 +15764,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>992</v>
+        <v>942</v>
       </c>
       <c r="B167" t="s">
-        <v>487</v>
+        <v>1435</v>
       </c>
       <c r="C167" t="s">
-        <v>1204</v>
+        <v>1436</v>
       </c>
       <c r="E167">
         <f>LEN(D167)</f>
@@ -14884,13 +15779,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1039</v>
+        <v>916</v>
       </c>
       <c r="B168" t="s">
-        <v>1295</v>
+        <v>1342</v>
       </c>
       <c r="C168" t="s">
-        <v>385</v>
+        <v>1343</v>
       </c>
       <c r="E168">
         <f>LEN(D168)</f>
@@ -14899,13 +15794,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>918</v>
+        <v>991</v>
       </c>
       <c r="B169" t="s">
-        <v>1358</v>
+        <v>487</v>
       </c>
       <c r="C169" t="s">
-        <v>1359</v>
+        <v>1195</v>
       </c>
       <c r="E169">
         <f>LEN(D169)</f>
@@ -14914,13 +15809,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="B170" t="s">
-        <v>1318</v>
+        <v>1286</v>
       </c>
       <c r="C170" t="s">
-        <v>1319</v>
+        <v>385</v>
       </c>
       <c r="E170">
         <f>LEN(D170)</f>
@@ -14929,13 +15824,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="B171" t="s">
-        <v>1318</v>
+        <v>1348</v>
       </c>
       <c r="C171" t="s">
-        <v>1434</v>
+        <v>1349</v>
       </c>
       <c r="E171">
         <f>LEN(D171)</f>
@@ -14944,13 +15839,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="B172" t="s">
-        <v>1279</v>
+        <v>1309</v>
       </c>
       <c r="C172" t="s">
-        <v>1280</v>
+        <v>1310</v>
       </c>
       <c r="E172">
         <f>LEN(D172)</f>
@@ -14959,13 +15854,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B173" t="s">
-        <v>1447</v>
+        <v>1309</v>
       </c>
       <c r="C173" t="s">
-        <v>1448</v>
+        <v>1420</v>
       </c>
       <c r="E173">
         <f>LEN(D173)</f>
@@ -14974,13 +15869,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="B174" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
       <c r="C174" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="E174">
         <f>LEN(D174)</f>
@@ -14989,13 +15884,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1112</v>
+        <v>941</v>
       </c>
       <c r="B175" t="s">
-        <v>1262</v>
+        <v>1433</v>
       </c>
       <c r="C175" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="E175">
         <f>LEN(D175)</f>
@@ -15004,13 +15899,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>907</v>
+        <v>1021</v>
       </c>
       <c r="B176" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="C176" t="s">
-        <v>1283</v>
+        <v>1254</v>
       </c>
       <c r="E176">
         <f>LEN(D176)</f>
@@ -15019,13 +15914,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1070</v>
+        <v>1110</v>
       </c>
       <c r="B177" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="C177" t="s">
-        <v>1344</v>
+        <v>1417</v>
       </c>
       <c r="E177">
         <f>LEN(D177)</f>
@@ -15034,13 +15929,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1100</v>
+        <v>907</v>
       </c>
       <c r="B178" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="C178" t="s">
-        <v>1407</v>
+        <v>1274</v>
       </c>
       <c r="E178">
         <f>LEN(D178)</f>
@@ -15049,13 +15944,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1111</v>
+        <v>1069</v>
       </c>
       <c r="B179" t="s">
-        <v>515</v>
+        <v>1253</v>
       </c>
       <c r="C179" t="s">
-        <v>1426</v>
+        <v>1335</v>
       </c>
       <c r="E179">
         <f>LEN(D179)</f>
@@ -15064,13 +15959,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="B180" t="s">
-        <v>1141</v>
+        <v>1253</v>
       </c>
       <c r="C180" t="s">
-        <v>1142</v>
+        <v>1394</v>
       </c>
       <c r="E180">
         <f>LEN(D180)</f>
@@ -15079,13 +15974,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>901</v>
+        <v>1109</v>
       </c>
       <c r="B181" t="s">
-        <v>1194</v>
+        <v>515</v>
       </c>
       <c r="C181" t="s">
-        <v>1195</v>
+        <v>1413</v>
       </c>
       <c r="E181">
         <f>LEN(D181)</f>
@@ -15094,13 +15989,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>990</v>
+        <v>1092</v>
       </c>
       <c r="B182" t="s">
-        <v>1200</v>
+        <v>1139</v>
       </c>
       <c r="C182" t="s">
-        <v>1201</v>
+        <v>1140</v>
       </c>
       <c r="E182">
         <f>LEN(D182)</f>
@@ -15109,13 +16004,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>933</v>
+        <v>901</v>
       </c>
       <c r="B183" t="s">
-        <v>594</v>
+        <v>1187</v>
       </c>
       <c r="C183" t="s">
-        <v>1429</v>
+        <v>1188</v>
       </c>
       <c r="E183">
         <f>LEN(D183)</f>
@@ -15124,13 +16019,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1046</v>
+        <v>989</v>
       </c>
       <c r="B184" t="s">
-        <v>594</v>
+        <v>1191</v>
       </c>
       <c r="C184" t="s">
-        <v>1308</v>
+        <v>1192</v>
       </c>
       <c r="E184">
         <f>LEN(D184)</f>
@@ -15139,13 +16034,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="B185" t="s">
         <v>594</v>
       </c>
       <c r="C185" t="s">
-        <v>1328</v>
+        <v>1415</v>
       </c>
       <c r="E185">
         <f>LEN(D185)</f>
@@ -15154,13 +16049,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>910</v>
+        <v>1045</v>
       </c>
       <c r="B186" t="s">
         <v>594</v>
       </c>
       <c r="C186" t="s">
-        <v>1313</v>
+        <v>1299</v>
       </c>
       <c r="E186">
         <f>LEN(D186)</f>
@@ -15169,13 +16064,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B187" t="s">
         <v>594</v>
       </c>
       <c r="C187" t="s">
-        <v>1378</v>
+        <v>1319</v>
       </c>
       <c r="E187">
         <f>LEN(D187)</f>
@@ -15184,13 +16079,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1004</v>
+        <v>910</v>
       </c>
       <c r="B188" t="s">
-        <v>1232</v>
+        <v>594</v>
       </c>
       <c r="C188" t="s">
-        <v>1233</v>
+        <v>1304</v>
       </c>
       <c r="E188">
         <f>LEN(D188)</f>
@@ -15198,14 +16093,14 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="5" t="s">
-        <v>965</v>
+      <c r="A189" t="s">
+        <v>921</v>
       </c>
       <c r="B189" t="s">
-        <v>1151</v>
+        <v>594</v>
       </c>
       <c r="C189" t="s">
-        <v>1152</v>
+        <v>1366</v>
       </c>
       <c r="E189">
         <f>LEN(D189)</f>
@@ -15214,13 +16109,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>926</v>
+        <v>1003</v>
       </c>
       <c r="B190" t="s">
-        <v>1392</v>
+        <v>1223</v>
       </c>
       <c r="C190" t="s">
-        <v>1398</v>
+        <v>1224</v>
       </c>
       <c r="E190">
         <f>LEN(D190)</f>
@@ -15228,14 +16123,14 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>923</v>
+      <c r="A191" s="5" t="s">
+        <v>965</v>
       </c>
       <c r="B191" t="s">
-        <v>1392</v>
+        <v>1148</v>
       </c>
       <c r="C191" t="s">
-        <v>1393</v>
+        <v>1149</v>
       </c>
       <c r="E191">
         <f>LEN(D191)</f>
@@ -15244,13 +16139,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1109</v>
+        <v>926</v>
       </c>
       <c r="B192" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="C192" t="s">
-        <v>1423</v>
+        <v>1385</v>
       </c>
       <c r="E192">
         <f>LEN(D192)</f>
@@ -15259,13 +16154,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1010</v>
+        <v>923</v>
       </c>
       <c r="B193" t="s">
-        <v>1243</v>
+        <v>1380</v>
       </c>
       <c r="C193" t="s">
-        <v>1244</v>
+        <v>1381</v>
       </c>
       <c r="E193">
         <f>LEN(D193)</f>
@@ -15274,13 +16169,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1073</v>
+        <v>1107</v>
       </c>
       <c r="B194" t="s">
-        <v>1347</v>
+        <v>1380</v>
       </c>
       <c r="C194" t="s">
-        <v>1348</v>
+        <v>1410</v>
       </c>
       <c r="E194">
         <f>LEN(D194)</f>
@@ -15289,13 +16184,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="B195" t="s">
-        <v>1202</v>
+        <v>1234</v>
       </c>
       <c r="C195" t="s">
-        <v>1203</v>
+        <v>1235</v>
       </c>
       <c r="E195">
         <f>LEN(D195)</f>
@@ -15303,14 +16198,14 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="5" t="s">
-        <v>974</v>
+      <c r="A196" t="s">
+        <v>1072</v>
       </c>
       <c r="B196" t="s">
-        <v>1171</v>
+        <v>1338</v>
       </c>
       <c r="C196" t="s">
-        <v>1148</v>
+        <v>1339</v>
       </c>
       <c r="E196">
         <f>LEN(D196)</f>
@@ -15319,13 +16214,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B197" t="s">
-        <v>1218</v>
+        <v>1193</v>
       </c>
       <c r="C197" t="s">
-        <v>1219</v>
+        <v>1194</v>
       </c>
       <c r="E197">
         <f>LEN(D197)</f>
@@ -15333,14 +16228,14 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>1043</v>
+      <c r="A198" s="5" t="s">
+        <v>974</v>
       </c>
       <c r="B198" t="s">
-        <v>1304</v>
+        <v>1167</v>
       </c>
       <c r="C198" t="s">
-        <v>1305</v>
+        <v>1145</v>
       </c>
       <c r="E198">
         <f>LEN(D198)</f>
@@ -15349,13 +16244,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1083</v>
+        <v>998</v>
       </c>
       <c r="B199" t="s">
-        <v>1304</v>
+        <v>1209</v>
       </c>
       <c r="C199" t="s">
-        <v>1366</v>
+        <v>1210</v>
       </c>
       <c r="E199">
         <f>LEN(D199)</f>
@@ -15364,13 +16259,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1011</v>
+        <v>1042</v>
       </c>
       <c r="B200" t="s">
-        <v>633</v>
+        <v>1295</v>
       </c>
       <c r="C200" t="s">
-        <v>1245</v>
+        <v>1296</v>
       </c>
       <c r="E200">
         <f>LEN(D200)</f>
@@ -15379,13 +16274,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1029</v>
+        <v>1082</v>
       </c>
       <c r="B201" t="s">
-        <v>633</v>
+        <v>1295</v>
       </c>
       <c r="C201" t="s">
-        <v>1277</v>
+        <v>1356</v>
       </c>
       <c r="E201">
         <f>LEN(D201)</f>
@@ -15393,14 +16288,14 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="5" t="s">
-        <v>973</v>
+      <c r="A202" t="s">
+        <v>1010</v>
       </c>
       <c r="B202" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C202" t="s">
-        <v>1170</v>
+        <v>1236</v>
       </c>
       <c r="E202">
         <f>LEN(D202)</f>
@@ -15409,13 +16304,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1113</v>
+        <v>1028</v>
       </c>
       <c r="B203" t="s">
-        <v>1424</v>
+        <v>633</v>
       </c>
       <c r="C203" t="s">
-        <v>1433</v>
+        <v>1268</v>
       </c>
       <c r="E203">
         <f>LEN(D203)</f>
@@ -15423,14 +16318,14 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>1110</v>
+      <c r="A204" s="5" t="s">
+        <v>973</v>
       </c>
       <c r="B204" t="s">
-        <v>1424</v>
+        <v>639</v>
       </c>
       <c r="C204" t="s">
-        <v>1425</v>
+        <v>1166</v>
       </c>
       <c r="E204">
         <f>LEN(D204)</f>
@@ -15439,13 +16334,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1038</v>
+        <v>1111</v>
       </c>
       <c r="B205" t="s">
-        <v>1293</v>
+        <v>1411</v>
       </c>
       <c r="C205" t="s">
-        <v>1294</v>
+        <v>1419</v>
       </c>
       <c r="E205">
         <f>LEN(D205)</f>
@@ -15454,13 +16349,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>912</v>
+        <v>1108</v>
       </c>
       <c r="B206" t="s">
-        <v>1316</v>
+        <v>1411</v>
       </c>
       <c r="C206" t="s">
-        <v>1317</v>
+        <v>1412</v>
       </c>
       <c r="E206">
         <f>LEN(D206)</f>
@@ -15469,13 +16364,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B207" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="C207" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="E207">
         <f>LEN(D207)</f>
@@ -15484,13 +16379,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>957</v>
+        <v>912</v>
       </c>
       <c r="B208" t="s">
-        <v>715</v>
+        <v>1307</v>
       </c>
       <c r="C208" t="s">
-        <v>1476</v>
+        <v>1308</v>
       </c>
       <c r="E208">
         <f>LEN(D208)</f>
@@ -15499,13 +16394,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>958</v>
+        <v>1039</v>
       </c>
       <c r="B209" t="s">
-        <v>715</v>
+        <v>1287</v>
       </c>
       <c r="C209" t="s">
-        <v>1477</v>
+        <v>1288</v>
       </c>
       <c r="E209">
         <f>LEN(D209)</f>
@@ -15514,13 +16409,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B210" t="s">
         <v>715</v>
       </c>
       <c r="C210" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="E210">
         <f>LEN(D210)</f>
@@ -15529,13 +16424,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B211" t="s">
         <v>715</v>
       </c>
       <c r="C211" t="s">
-        <v>1478</v>
+        <v>1461</v>
       </c>
       <c r="E211">
         <f>LEN(D211)</f>
@@ -15544,13 +16439,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>914</v>
+        <v>956</v>
       </c>
       <c r="B212" t="s">
         <v>715</v>
       </c>
       <c r="C212" t="s">
-        <v>1330</v>
+        <v>1459</v>
       </c>
       <c r="E212">
         <f>LEN(D212)</f>
@@ -15559,13 +16454,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1008</v>
+        <v>959</v>
       </c>
       <c r="B213" t="s">
-        <v>1239</v>
+        <v>715</v>
       </c>
       <c r="C213" t="s">
-        <v>1240</v>
+        <v>1462</v>
       </c>
       <c r="E213">
         <f>LEN(D213)</f>
@@ -15574,13 +16469,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1062</v>
+        <v>914</v>
       </c>
       <c r="B214" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C214" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="E214">
         <f>LEN(D214)</f>
@@ -15589,13 +16484,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1082</v>
+        <v>1007</v>
       </c>
       <c r="B215" t="s">
-        <v>728</v>
+        <v>1230</v>
       </c>
       <c r="C215" t="s">
-        <v>1365</v>
+        <v>1231</v>
       </c>
       <c r="E215">
         <f>LEN(D215)</f>
@@ -15604,13 +16499,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>994</v>
+        <v>1061</v>
       </c>
       <c r="B216" t="s">
-        <v>1207</v>
+        <v>728</v>
       </c>
       <c r="C216" t="s">
-        <v>1208</v>
+        <v>1324</v>
       </c>
       <c r="E216">
         <f>LEN(D216)</f>
@@ -15619,13 +16514,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1030</v>
+        <v>1081</v>
       </c>
       <c r="B217" t="s">
-        <v>1254</v>
+        <v>728</v>
       </c>
       <c r="C217" t="s">
-        <v>1278</v>
+        <v>1355</v>
       </c>
       <c r="E217">
         <f>LEN(D217)</f>
@@ -15634,13 +16529,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1020</v>
+        <v>993</v>
       </c>
       <c r="B218" t="s">
-        <v>1254</v>
+        <v>1198</v>
       </c>
       <c r="C218" t="s">
-        <v>1260</v>
+        <v>1199</v>
       </c>
       <c r="E218">
         <f>LEN(D218)</f>
@@ -15649,13 +16544,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="B219" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="C219" t="s">
-        <v>1255</v>
+        <v>1269</v>
       </c>
       <c r="E219">
         <f>LEN(D219)</f>
@@ -15664,13 +16559,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1090</v>
+        <v>1019</v>
       </c>
       <c r="B220" t="s">
-        <v>1383</v>
+        <v>1245</v>
       </c>
       <c r="C220" t="s">
-        <v>1384</v>
+        <v>1251</v>
       </c>
       <c r="E220">
         <f>LEN(D220)</f>
@@ -15679,13 +16574,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>984</v>
+        <v>1016</v>
       </c>
       <c r="B221" t="s">
-        <v>773</v>
+        <v>1245</v>
       </c>
       <c r="C221" t="s">
-        <v>1187</v>
+        <v>1246</v>
       </c>
       <c r="E221">
         <f>LEN(D221)</f>
@@ -15694,13 +16589,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1074</v>
+        <v>1088</v>
       </c>
       <c r="B222" t="s">
-        <v>1302</v>
+        <v>1371</v>
       </c>
       <c r="C222" t="s">
-        <v>1349</v>
+        <v>1372</v>
       </c>
       <c r="E222">
         <f>LEN(D222)</f>
@@ -15709,13 +16604,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1076</v>
+        <v>984</v>
       </c>
       <c r="B223" t="s">
-        <v>1302</v>
+        <v>773</v>
       </c>
       <c r="C223" t="s">
-        <v>1356</v>
+        <v>1182</v>
       </c>
       <c r="E223">
         <f>LEN(D223)</f>
@@ -15724,13 +16619,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B224" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="C224" t="s">
-        <v>1364</v>
+        <v>1340</v>
       </c>
       <c r="E224">
         <f>LEN(D224)</f>
@@ -15739,13 +16634,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1042</v>
+        <v>1075</v>
       </c>
       <c r="B225" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="C225" t="s">
-        <v>1303</v>
+        <v>1346</v>
       </c>
       <c r="E225">
         <f>LEN(D225)</f>
@@ -15753,14 +16648,14 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="5" t="s">
-        <v>969</v>
+      <c r="A226" t="s">
+        <v>1080</v>
       </c>
       <c r="B226" t="s">
-        <v>1162</v>
+        <v>1293</v>
       </c>
       <c r="C226" t="s">
-        <v>1163</v>
+        <v>1354</v>
       </c>
       <c r="E226">
         <f>LEN(D226)</f>
@@ -15769,13 +16664,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>919</v>
+        <v>1041</v>
       </c>
       <c r="B227" t="s">
-        <v>1367</v>
+        <v>1293</v>
       </c>
       <c r="C227" t="s">
-        <v>1368</v>
+        <v>1294</v>
       </c>
       <c r="E227">
         <f>LEN(D227)</f>
@@ -15783,14 +16678,14 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>902</v>
+      <c r="A228" s="5" t="s">
+        <v>969</v>
       </c>
       <c r="B228" t="s">
-        <v>1216</v>
+        <v>1158</v>
       </c>
       <c r="C228" t="s">
-        <v>1217</v>
+        <v>1159</v>
       </c>
       <c r="E228">
         <f>LEN(D228)</f>
@@ -15799,13 +16694,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1001</v>
+        <v>919</v>
       </c>
       <c r="B229" t="s">
-        <v>808</v>
+        <v>1357</v>
       </c>
       <c r="C229" t="s">
-        <v>1222</v>
+        <v>1358</v>
       </c>
       <c r="E229">
         <f>LEN(D229)</f>
@@ -15814,13 +16709,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1089</v>
+        <v>902</v>
       </c>
       <c r="B230" t="s">
-        <v>820</v>
+        <v>1207</v>
       </c>
       <c r="C230" t="s">
-        <v>1380</v>
+        <v>1208</v>
       </c>
       <c r="E230">
         <f>LEN(D230)</f>
@@ -15829,13 +16724,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1059</v>
+        <v>1000</v>
       </c>
       <c r="B231" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="C231" t="s">
-        <v>1327</v>
+        <v>1213</v>
       </c>
       <c r="E231">
         <f>LEN(D231)</f>
@@ -15844,13 +16739,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="B232" t="s">
         <v>820</v>
       </c>
       <c r="C232" t="s">
-        <v>1410</v>
+        <v>1368</v>
       </c>
       <c r="E232">
         <f>LEN(D232)</f>
@@ -15859,13 +16754,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1005</v>
+        <v>1058</v>
       </c>
       <c r="B233" t="s">
-        <v>1234</v>
+        <v>820</v>
       </c>
       <c r="C233" t="s">
-        <v>1235</v>
+        <v>1318</v>
       </c>
       <c r="E233">
         <f>LEN(D233)</f>
@@ -15874,13 +16769,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1034</v>
+        <v>1100</v>
       </c>
       <c r="B234" t="s">
-        <v>1285</v>
+        <v>820</v>
       </c>
       <c r="C234" t="s">
-        <v>1286</v>
+        <v>1397</v>
       </c>
       <c r="E234">
         <f>LEN(D234)</f>
@@ -15889,13 +16784,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>983</v>
+        <v>1004</v>
       </c>
       <c r="B235" t="s">
-        <v>1185</v>
+        <v>1225</v>
       </c>
       <c r="C235" t="s">
-        <v>1186</v>
+        <v>1226</v>
       </c>
       <c r="E235">
         <f>LEN(D235)</f>
@@ -15904,13 +16799,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1096</v>
+        <v>1033</v>
       </c>
       <c r="B236" t="s">
-        <v>1399</v>
+        <v>1276</v>
       </c>
       <c r="C236" t="s">
-        <v>1400</v>
+        <v>1277</v>
       </c>
       <c r="E236">
         <f>LEN(D236)</f>
@@ -15918,14 +16813,14 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="5" t="s">
-        <v>979</v>
+      <c r="A237" t="s">
+        <v>983</v>
       </c>
       <c r="B237" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C237" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="E237">
         <f>LEN(D237)</f>
@@ -15934,13 +16829,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1012</v>
+        <v>1094</v>
       </c>
       <c r="B238" t="s">
-        <v>1246</v>
+        <v>1386</v>
       </c>
       <c r="C238" t="s">
-        <v>1247</v>
+        <v>1387</v>
       </c>
       <c r="E238">
         <f>LEN(D238)</f>
@@ -15948,24 +16843,54 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>1091</v>
+      <c r="A239" s="5" t="s">
+        <v>979</v>
       </c>
       <c r="B239" t="s">
-        <v>1385</v>
+        <v>1174</v>
       </c>
       <c r="C239" t="s">
-        <v>1386</v>
+        <v>1175</v>
       </c>
       <c r="E239">
         <f>LEN(D239)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E240">
+        <f>LEN(D240)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E241">
+        <f>LEN(D241)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F1793A0B-E782-8B44-B4F6-F9D87B357ACC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E239">
-      <sortCondition ref="B1:B239"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E241">
+      <sortCondition ref="B1:B241"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
